--- a/raw_data/INJ-USD_4h_process.xlsx
+++ b/raw_data/INJ-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>39.30860900878906</v>
+        <v>34.32380676269531</v>
       </c>
       <c r="C2">
-        <v>39.42424774169922</v>
+        <v>34.53977966308594</v>
       </c>
       <c r="D2">
-        <v>38.6218147277832</v>
+        <v>33.37953948974609</v>
       </c>
       <c r="E2">
-        <v>39.21202850341797</v>
+        <v>33.68011474609375</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2123904</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>39.26495742797852</v>
+        <v>33.74032211303711</v>
       </c>
       <c r="C3">
-        <v>39.90044784545898</v>
+        <v>34.64182662963867</v>
       </c>
       <c r="D3">
-        <v>37.94401931762695</v>
+        <v>33.71194839477539</v>
       </c>
       <c r="E3">
-        <v>38.13454818725586</v>
+        <v>34.23521423339844</v>
       </c>
       <c r="F3">
-        <v>6527136</v>
+        <v>2642080</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>38.0338020324707</v>
+        <v>34.19549560546875</v>
       </c>
       <c r="C4">
-        <v>38.34696960449219</v>
+        <v>34.86125946044922</v>
       </c>
       <c r="D4">
-        <v>37.58786010742188</v>
+        <v>33.91719818115234</v>
       </c>
       <c r="E4">
-        <v>37.98154449462891</v>
+        <v>34.86125946044922</v>
       </c>
       <c r="F4">
-        <v>1944144</v>
+        <v>1493920</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>38.09528732299805</v>
+        <v>34.88379669189453</v>
       </c>
       <c r="C5">
-        <v>38.25065994262695</v>
+        <v>36.52949905395508</v>
       </c>
       <c r="D5">
-        <v>37.04255676269531</v>
+        <v>34.88379669189453</v>
       </c>
       <c r="E5">
-        <v>37.14279556274414</v>
+        <v>35.75719833374023</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14569600</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>37.13544082641602</v>
+        <v>35.88774108886719</v>
       </c>
       <c r="C6">
-        <v>37.13544082641602</v>
+        <v>36.89710235595703</v>
       </c>
       <c r="D6">
-        <v>34.78095245361328</v>
+        <v>35.45175933837891</v>
       </c>
       <c r="E6">
-        <v>35.54622650146484</v>
+        <v>36.58967590332031</v>
       </c>
       <c r="F6">
-        <v>24110960</v>
+        <v>6238144</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>35.52299118041992</v>
+        <v>36.55681991577149</v>
       </c>
       <c r="C7">
-        <v>35.63457107543945</v>
+        <v>40.12995529174805</v>
       </c>
       <c r="D7">
-        <v>35.1092643737793</v>
+        <v>36.42324447631836</v>
       </c>
       <c r="E7">
-        <v>35.59124374389648</v>
+        <v>40.12995529174805</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>40356592</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>35.59560012817383</v>
+        <v>40.3979721069336</v>
       </c>
       <c r="C8">
-        <v>35.79720306396484</v>
+        <v>40.43948364257812</v>
       </c>
       <c r="D8">
-        <v>34.97128677368164</v>
+        <v>38.56098556518555</v>
       </c>
       <c r="E8">
-        <v>35.64032745361328</v>
+        <v>38.91583633422852</v>
       </c>
       <c r="F8">
-        <v>5191760</v>
+        <v>24411408</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>35.61199188232422</v>
+        <v>38.87666320800781</v>
       </c>
       <c r="C9">
-        <v>36.49928665161133</v>
+        <v>39.45050430297852</v>
       </c>
       <c r="D9">
-        <v>34.83893966674805</v>
+        <v>38.17056655883789</v>
       </c>
       <c r="E9">
-        <v>36.28903198242188</v>
+        <v>38.39067459106445</v>
       </c>
       <c r="F9">
-        <v>5702864</v>
+        <v>8166432</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>36.27152252197266</v>
+        <v>38.4411735534668</v>
       </c>
       <c r="C10">
-        <v>36.82394790649414</v>
+        <v>38.77805709838867</v>
       </c>
       <c r="D10">
-        <v>36.02044296264648</v>
+        <v>36.82722854614258</v>
       </c>
       <c r="E10">
-        <v>36.02044296264648</v>
+        <v>36.83097839355469</v>
       </c>
       <c r="F10">
-        <v>527344</v>
+        <v>11808224</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>35.92444229125977</v>
+        <v>36.80013656616211</v>
       </c>
       <c r="C11">
-        <v>37.87057113647461</v>
+        <v>37.59363555908203</v>
       </c>
       <c r="D11">
-        <v>35.92444229125977</v>
+        <v>36.43362808227539</v>
       </c>
       <c r="E11">
-        <v>37.22432327270508</v>
+        <v>37.08245849609375</v>
       </c>
       <c r="F11">
-        <v>15162512</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>46.76078112052542</v>
+        <v>59.23402335076008</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>37.29948425292969</v>
+        <v>37.07147979736328</v>
       </c>
       <c r="C12">
-        <v>37.3895378112793</v>
+        <v>39.36611557006836</v>
       </c>
       <c r="D12">
-        <v>35.66464996337891</v>
+        <v>37.07147979736328</v>
       </c>
       <c r="E12">
-        <v>35.66464996337891</v>
+        <v>38.24851989746094</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>28802720</v>
       </c>
       <c r="L12">
-        <v>32.00164731187967</v>
+        <v>66.07059432587916</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>35.74763107299805</v>
+        <v>38.16539764404297</v>
       </c>
       <c r="C13">
-        <v>36.14073181152344</v>
+        <v>38.55067443847656</v>
       </c>
       <c r="D13">
-        <v>35.28383255004883</v>
+        <v>36.54342651367188</v>
       </c>
       <c r="E13">
-        <v>36.01042175292969</v>
+        <v>36.54342651367188</v>
       </c>
       <c r="F13">
-        <v>9652496</v>
+        <v>853632</v>
       </c>
       <c r="L13">
-        <v>36.96387895305261</v>
+        <v>51.78434475167796</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>35.97879028320312</v>
+        <v>36.61768341064453</v>
       </c>
       <c r="C14">
-        <v>35.97879028320312</v>
+        <v>36.78407669067383</v>
       </c>
       <c r="D14">
-        <v>35.29118347167969</v>
+        <v>35.85106658935547</v>
       </c>
       <c r="E14">
-        <v>35.76205444335938</v>
+        <v>36.40943145751953</v>
       </c>
       <c r="F14">
-        <v>2957472</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>34.90547954424422</v>
+        <v>50.81298993515096</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>35.80796051025391</v>
+        <v>36.42912673950195</v>
       </c>
       <c r="C15">
-        <v>36.88068771362305</v>
+        <v>39.2110481262207</v>
       </c>
       <c r="D15">
-        <v>35.53086090087891</v>
+        <v>36.32892608642578</v>
       </c>
       <c r="E15">
-        <v>35.53086090087891</v>
+        <v>38.6986083984375</v>
       </c>
       <c r="F15">
-        <v>201312</v>
+        <v>29523120</v>
       </c>
       <c r="L15">
-        <v>32.98210330818851</v>
+        <v>63.84675320014638</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,516 +1309,519 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>35.6026725769043</v>
+        <v>38.57566833496094</v>
       </c>
       <c r="C16">
-        <v>36.23696517944336</v>
+        <v>38.57566833496094</v>
       </c>
       <c r="D16">
-        <v>35.17017364501953</v>
+        <v>36.54217529296875</v>
       </c>
       <c r="E16">
-        <v>35.17017364501953</v>
+        <v>36.54217529296875</v>
       </c>
       <c r="F16">
-        <v>1419936</v>
+        <v>2796800</v>
       </c>
       <c r="L16">
-        <v>30.07363593956135</v>
+        <v>49.84832875687134</v>
       </c>
       <c r="M16">
-        <v>29.29462996140986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>52.63321689107666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>35.11729431152344</v>
+        <v>36.49664306640625</v>
       </c>
       <c r="C17">
-        <v>36.18432235717773</v>
+        <v>36.81135559082031</v>
       </c>
       <c r="D17">
-        <v>34.2216911315918</v>
+        <v>35.35588073730469</v>
       </c>
       <c r="E17">
-        <v>36.18432235717773</v>
+        <v>35.88781356811523</v>
       </c>
       <c r="F17">
-        <v>3356688</v>
+        <v>8711472</v>
       </c>
       <c r="L17">
-        <v>45.32470674304766</v>
+        <v>46.37713633028957</v>
       </c>
       <c r="M17">
-        <v>41.4289172910206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>49.68274839512326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>36.28541564941406</v>
+        <v>36.12057876586914</v>
       </c>
       <c r="C18">
-        <v>36.74657440185547</v>
+        <v>38.29262161254883</v>
       </c>
       <c r="D18">
-        <v>35.69784164428711</v>
+        <v>35.76283264160156</v>
       </c>
       <c r="E18">
-        <v>36.44548797607422</v>
+        <v>37.32193374633789</v>
       </c>
       <c r="F18">
-        <v>8855152</v>
+        <v>1347056</v>
       </c>
       <c r="L18">
-        <v>48.5741415144652</v>
+        <v>54.23464861466768</v>
       </c>
       <c r="M18">
-        <v>44.08995342952154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>55.56218970135484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>36.37543106079102</v>
+        <v>37.34993362426758</v>
       </c>
       <c r="C19">
-        <v>36.87710571289063</v>
+        <v>39.13196563720703</v>
       </c>
       <c r="D19">
-        <v>35.71487045288086</v>
+        <v>37.34993362426758</v>
       </c>
       <c r="E19">
-        <v>35.76583099365234</v>
+        <v>37.55072784423828</v>
       </c>
       <c r="F19">
-        <v>1719680</v>
+        <v>20991248</v>
       </c>
       <c r="L19">
-        <v>41.374995761866</v>
+        <v>55.40740973176784</v>
       </c>
       <c r="M19">
-        <v>39.11011679437127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>56.43673739721029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>35.75296401977539</v>
+        <v>37.46823501586914</v>
       </c>
       <c r="C20">
-        <v>37.68416976928711</v>
+        <v>38.97902297973633</v>
       </c>
       <c r="D20">
-        <v>35.60321044921875</v>
+        <v>37.38975143432617</v>
       </c>
       <c r="E20">
-        <v>37.46027374267578</v>
+        <v>38.03107833862305</v>
       </c>
       <c r="F20">
-        <v>27406000</v>
+        <v>11258960</v>
       </c>
       <c r="L20">
-        <v>58.58897995990009</v>
+        <v>57.95236569124272</v>
       </c>
       <c r="M20">
-        <v>53.27834326513855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>58.29258467593992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>37.28782653808594</v>
+        <v>38.03656387329102</v>
       </c>
       <c r="C21">
-        <v>37.73554992675781</v>
+        <v>40.08903503417969</v>
       </c>
       <c r="D21">
-        <v>36.97340774536133</v>
+        <v>37.84079742431641</v>
       </c>
       <c r="E21">
-        <v>37.5251579284668</v>
+        <v>39.97212600708008</v>
       </c>
       <c r="F21">
-        <v>3370944</v>
+        <v>17418384</v>
       </c>
       <c r="H21">
-        <v>36.51508731842041</v>
+        <v>37.08396034240722</v>
       </c>
       <c r="L21">
-        <v>59.10625306667129</v>
+        <v>66.61419949340458</v>
       </c>
       <c r="M21">
-        <v>53.72239935053428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>64.81542551663581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>37.58140563964844</v>
+        <v>39.98093414306641</v>
       </c>
       <c r="C22">
-        <v>38.69861602783203</v>
+        <v>40.68841552734375</v>
       </c>
       <c r="D22">
-        <v>37.44134902954102</v>
+        <v>38.44095230102539</v>
       </c>
       <c r="E22">
-        <v>38.27654647827149</v>
+        <v>38.74738693237305</v>
       </c>
       <c r="F22">
-        <v>21678272</v>
+        <v>10541472</v>
       </c>
       <c r="G22">
-        <v>36.59896632603237</v>
+        <v>37.1631711324056</v>
       </c>
       <c r="H22">
-        <v>36.46831321716309</v>
+        <v>37.33732395172119</v>
       </c>
       <c r="L22">
-        <v>64.82970702647927</v>
+        <v>58.11605174730033</v>
       </c>
       <c r="M22">
-        <v>58.62642807459075</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>58.58909266477996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>38.48326873779297</v>
+        <v>38.72571563720703</v>
       </c>
       <c r="C23">
-        <v>38.64680480957031</v>
+        <v>38.80649948120117</v>
       </c>
       <c r="D23">
-        <v>37.82935333251953</v>
+        <v>37.70383071899414</v>
       </c>
       <c r="E23">
-        <v>38.04985809326172</v>
+        <v>37.70383071899414</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>459968</v>
       </c>
       <c r="G23">
-        <v>36.73086557759867</v>
+        <v>37.21232200391365</v>
       </c>
       <c r="H23">
-        <v>36.46407871246338</v>
+        <v>37.51075477600098</v>
       </c>
       <c r="L23">
-        <v>61.88977421609385</v>
+        <v>51.78356607970266</v>
       </c>
       <c r="M23">
-        <v>56.67512800488999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>53.8429603175187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>38.17839431762695</v>
+        <v>37.55565643310547</v>
       </c>
       <c r="C24">
-        <v>38.46526718139648</v>
+        <v>38.46421813964844</v>
       </c>
       <c r="D24">
-        <v>37.07449722290039</v>
+        <v>37.41254425048828</v>
       </c>
       <c r="E24">
-        <v>37.07449722290039</v>
+        <v>37.81351089477539</v>
       </c>
       <c r="F24">
-        <v>2135600</v>
+        <v>3207184</v>
       </c>
       <c r="G24">
-        <v>36.76210481808064</v>
+        <v>37.26697553944653</v>
       </c>
       <c r="H24">
-        <v>36.41872634887695</v>
+        <v>37.65836734771729</v>
       </c>
       <c r="L24">
-        <v>50.74975629019816</v>
+        <v>52.39687375658464</v>
       </c>
       <c r="M24">
-        <v>49.10237385967459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>54.26232717818539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>37.11792373657227</v>
+        <v>37.76361846923828</v>
       </c>
       <c r="C25">
-        <v>37.61117935180664</v>
+        <v>37.76361846923828</v>
       </c>
       <c r="D25">
-        <v>37.11792373657227</v>
+        <v>37.11142349243164</v>
       </c>
       <c r="E25">
-        <v>37.58404159545898</v>
+        <v>37.53332138061523</v>
       </c>
       <c r="F25">
-        <v>334240</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>36.83682634329686</v>
+        <v>37.2911887977346</v>
       </c>
       <c r="H25">
-        <v>36.44078865051269</v>
+        <v>37.74717350006104</v>
       </c>
       <c r="L25">
-        <v>55.46140308404671</v>
+        <v>50.54900062569169</v>
       </c>
       <c r="M25">
-        <v>52.66099563363156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>52.93908000544997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>37.54769897460938</v>
+        <v>37.48900985717773</v>
       </c>
       <c r="C26">
-        <v>37.5563850402832</v>
+        <v>37.499755859375</v>
       </c>
       <c r="D26">
-        <v>35.66943359375</v>
+        <v>36.89276885986328</v>
       </c>
       <c r="E26">
-        <v>35.79111862182617</v>
+        <v>37.16559219360352</v>
       </c>
       <c r="F26">
-        <v>1538880</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>36.74176200498133</v>
+        <v>37.27977092463177</v>
       </c>
       <c r="H26">
-        <v>36.45303325653076</v>
+        <v>37.77596931457519</v>
       </c>
       <c r="L26">
-        <v>40.22728774369171</v>
+        <v>48.04714027379719</v>
       </c>
       <c r="M26">
-        <v>41.63119851442106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>51.1752236462265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>35.77037048339844</v>
+        <v>37.15750122070312</v>
       </c>
       <c r="C27">
-        <v>36.32683181762695</v>
+        <v>37.15750122070312</v>
       </c>
       <c r="D27">
-        <v>35.49654006958008</v>
+        <v>35.96591186523438</v>
       </c>
       <c r="E27">
-        <v>35.55710983276367</v>
+        <v>36.28070831298828</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>36.63406635296154</v>
+        <v>37.188947050846</v>
       </c>
       <c r="H27">
-        <v>36.45132656097412</v>
+        <v>37.58350696563721</v>
       </c>
       <c r="L27">
-        <v>38.66774151284787</v>
+        <v>42.3701148766891</v>
       </c>
       <c r="M27">
-        <v>40.44063746073962</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>47.10777323444518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>35.55845260620117</v>
+        <v>36.61666870117188</v>
       </c>
       <c r="C28">
-        <v>35.84974670410156</v>
+        <v>37.07530975341797</v>
       </c>
       <c r="D28">
-        <v>35.25346374511719</v>
+        <v>33.93611145019531</v>
       </c>
       <c r="E28">
-        <v>35.76087951660156</v>
+        <v>35.02051544189453</v>
       </c>
       <c r="F28">
-        <v>1723072</v>
+        <v>19320320</v>
       </c>
       <c r="G28">
-        <v>36.55468573147427</v>
+        <v>36.99181690457768</v>
       </c>
       <c r="H28">
-        <v>36.45735416412354</v>
+        <v>37.38874092102051</v>
       </c>
       <c r="L28">
-        <v>40.91181998575775</v>
+        <v>35.62601756827806</v>
       </c>
       <c r="M28">
-        <v>41.99617842099995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>41.98934061684123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>35.75991821289062</v>
+        <v>35.14741897583008</v>
       </c>
       <c r="C29">
-        <v>36.35725402832031</v>
+        <v>38.61570358276367</v>
       </c>
       <c r="D29">
-        <v>35.54158782958984</v>
+        <v>34.99958801269531</v>
       </c>
       <c r="E29">
-        <v>36.35725402832031</v>
+        <v>37.92041397094727</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>35502768</v>
       </c>
       <c r="G29">
-        <v>36.53673739482391</v>
+        <v>37.07623481970219</v>
       </c>
       <c r="H29">
-        <v>36.46076526641846</v>
+        <v>37.36522789001465</v>
       </c>
       <c r="L29">
-        <v>47.26485503474702</v>
+        <v>54.41136038449444</v>
       </c>
       <c r="M29">
-        <v>46.40778995185563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>54.29575244578136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>36.34751129150391</v>
+        <v>38.02133178710938</v>
       </c>
       <c r="C30">
-        <v>38.85228729248047</v>
+        <v>39.85404586791992</v>
       </c>
       <c r="D30">
-        <v>36.22720718383789</v>
+        <v>37.95203018188477</v>
       </c>
       <c r="E30">
-        <v>38.67535781860352</v>
+        <v>38.98784255981445</v>
       </c>
       <c r="F30">
-        <v>17400840</v>
+        <v>33239088</v>
       </c>
       <c r="G30">
-        <v>36.73115743334932</v>
+        <v>37.25001734153057</v>
       </c>
       <c r="H30">
-        <v>36.59351100921631</v>
+        <v>37.47307109832764</v>
       </c>
       <c r="L30">
-        <v>64.12968994025519</v>
+        <v>59.32642917642014</v>
       </c>
       <c r="M30">
-        <v>59.34980216249125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>57.8410609140242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>38.82003784179688</v>
+        <v>39.00520324707031</v>
       </c>
       <c r="C31">
-        <v>39.16913986206055</v>
+        <v>42.22593688964844</v>
       </c>
       <c r="D31">
-        <v>38.28369522094727</v>
+        <v>39.00520324707031</v>
       </c>
       <c r="E31">
-        <v>38.80419921875</v>
+        <v>41.13097381591797</v>
       </c>
       <c r="F31">
-        <v>19727632</v>
+        <v>98543120</v>
       </c>
       <c r="G31">
-        <v>36.91961577747666</v>
+        <v>37.60283156647488</v>
       </c>
       <c r="H31">
-        <v>36.67250480651855</v>
+        <v>37.67549686431884</v>
       </c>
       <c r="I31">
-        <v>36.74108695983887</v>
+        <v>37.33277676900228</v>
       </c>
       <c r="L31">
-        <v>64.83291351340476</v>
+        <v>67.29159463328524</v>
       </c>
       <c r="M31">
-        <v>59.92901397398922</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>63.89644930283011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>38.92572021484375</v>
+        <v>41.19034957885742</v>
       </c>
       <c r="C32">
-        <v>39.8856315612793</v>
+        <v>42.32094573974609</v>
       </c>
       <c r="D32">
-        <v>38.82617950439453</v>
+        <v>41.19034957885742</v>
       </c>
       <c r="E32">
-        <v>39.57393646240234</v>
+        <v>42.32089614868164</v>
       </c>
       <c r="F32">
-        <v>16372400</v>
+        <v>53032480</v>
       </c>
       <c r="G32">
-        <v>37.16091765792445</v>
+        <v>38.03174652849368</v>
       </c>
       <c r="H32">
-        <v>36.86796913146973</v>
+        <v>37.87911567687988</v>
       </c>
       <c r="I32">
-        <v>36.75315055847168</v>
+        <v>37.62080281575521</v>
       </c>
       <c r="L32">
-        <v>68.92720032195858</v>
+        <v>70.85648953634089</v>
       </c>
       <c r="M32">
-        <v>63.29400205271669</v>
+        <v>66.75189409718513</v>
+      </c>
+      <c r="O32" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1826,34 +1829,34 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>39.66669082641602</v>
+        <v>42.29841995239258</v>
       </c>
       <c r="C33">
-        <v>39.85914993286133</v>
+        <v>43.06719207763672</v>
       </c>
       <c r="D33">
-        <v>38.7000732421875</v>
+        <v>41.53818893432617</v>
       </c>
       <c r="E33">
-        <v>38.7000732421875</v>
+        <v>42.14876174926758</v>
       </c>
       <c r="F33">
-        <v>15366528</v>
+        <v>30588480</v>
       </c>
       <c r="G33">
-        <v>37.30084089285745</v>
+        <v>38.40602063947312</v>
       </c>
       <c r="H33">
-        <v>37.00245170593261</v>
+        <v>38.15938243865967</v>
       </c>
       <c r="I33">
-        <v>36.77200139363607</v>
+        <v>37.88458773295085</v>
       </c>
       <c r="L33">
-        <v>60.0048063807772</v>
+        <v>69.62158652233525</v>
       </c>
       <c r="M33">
-        <v>57.40072913629418</v>
+        <v>65.93943258935334</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1861,34 +1864,37 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>38.69216156005859</v>
+        <v>42.30155944824219</v>
       </c>
       <c r="C34">
-        <v>39.51390075683594</v>
+        <v>43.28937530517578</v>
       </c>
       <c r="D34">
-        <v>38.57793807983398</v>
+        <v>41.60091018676758</v>
       </c>
       <c r="E34">
-        <v>38.87462615966797</v>
+        <v>42.65901184082031</v>
       </c>
       <c r="F34">
-        <v>12664544</v>
+        <v>4095392</v>
       </c>
       <c r="G34">
-        <v>37.44391228074932</v>
+        <v>38.79265620323195</v>
       </c>
       <c r="H34">
-        <v>37.15808029174805</v>
+        <v>38.47186145782471</v>
       </c>
       <c r="I34">
-        <v>36.8017707824707</v>
+        <v>38.14451281229655</v>
       </c>
       <c r="L34">
-        <v>61.13533575086117</v>
+        <v>71.29018396366251</v>
       </c>
       <c r="M34">
-        <v>58.23720211813752</v>
+        <v>67.21333610397417</v>
+      </c>
+      <c r="O34" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1896,34 +1902,37 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>38.89081954956055</v>
+        <v>42.68408584594727</v>
       </c>
       <c r="C35">
-        <v>40.98305892944336</v>
+        <v>45.03996658325195</v>
       </c>
       <c r="D35">
-        <v>38.81390762329102</v>
+        <v>42.62262344360352</v>
       </c>
       <c r="E35">
-        <v>39.41363143920898</v>
+        <v>43.7264518737793</v>
       </c>
       <c r="F35">
-        <v>43736896</v>
+        <v>28405408</v>
       </c>
       <c r="G35">
-        <v>37.6229776587911</v>
+        <v>39.24118308237261</v>
       </c>
       <c r="H35">
-        <v>37.35221881866455</v>
+        <v>38.7232536315918</v>
       </c>
       <c r="I35">
-        <v>36.8774653116862</v>
+        <v>38.41015459696452</v>
       </c>
       <c r="L35">
-        <v>64.61043854976585</v>
+        <v>74.57667030317565</v>
       </c>
       <c r="M35">
-        <v>60.7970772939071</v>
+        <v>69.76129773951416</v>
+      </c>
+      <c r="O35" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1931,34 +1940,34 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>39.57096862792969</v>
+        <v>43.89977645874024</v>
       </c>
       <c r="C36">
-        <v>39.97233581542969</v>
+        <v>44.44422149658203</v>
       </c>
       <c r="D36">
-        <v>37.64396286010742</v>
+        <v>42.10846710205078</v>
       </c>
       <c r="E36">
-        <v>38.0527458190918</v>
+        <v>42.26864624023438</v>
       </c>
       <c r="F36">
-        <v>5754192</v>
+        <v>8212448</v>
       </c>
       <c r="G36">
-        <v>37.66204749154571</v>
+        <v>39.51640700581459</v>
       </c>
       <c r="H36">
-        <v>37.49634742736816</v>
+        <v>39.00957717895508</v>
       </c>
       <c r="I36">
-        <v>36.9610159556071</v>
+        <v>38.59945360819498</v>
       </c>
       <c r="L36">
-        <v>51.52443334600558</v>
+        <v>63.42214685237096</v>
       </c>
       <c r="M36">
-        <v>52.11188780594794</v>
+        <v>62.60563442739065</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1966,34 +1975,34 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>38.00761795043945</v>
+        <v>42.36142349243164</v>
       </c>
       <c r="C37">
-        <v>38.55254364013672</v>
+        <v>43.28216934204102</v>
       </c>
       <c r="D37">
-        <v>37.29730987548828</v>
+        <v>41.53428268432617</v>
       </c>
       <c r="E37">
-        <v>37.38353729248047</v>
+        <v>42.16144180297852</v>
       </c>
       <c r="F37">
-        <v>1071360</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>37.63672838253978</v>
+        <v>39.75686471464768</v>
       </c>
       <c r="H37">
-        <v>37.5563081741333</v>
+        <v>39.32325859069825</v>
       </c>
       <c r="I37">
-        <v>37.02075907389323</v>
+        <v>38.667169825236</v>
       </c>
       <c r="L37">
-        <v>46.33300105683727</v>
+        <v>62.64694713870395</v>
       </c>
       <c r="M37">
-        <v>48.44678561906491</v>
+        <v>62.10116723128564</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2001,34 +2010,34 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>37.27322387695312</v>
+        <v>42.09714126586914</v>
       </c>
       <c r="C38">
-        <v>37.6505241394043</v>
+        <v>42.19252777099609</v>
       </c>
       <c r="D38">
-        <v>36.94280242919922</v>
+        <v>41.05344009399414</v>
       </c>
       <c r="E38">
-        <v>37.02639770507812</v>
+        <v>41.23075485229492</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>37.58124377549781</v>
+        <v>39.89085472716106</v>
       </c>
       <c r="H38">
-        <v>37.58535366058349</v>
+        <v>39.51869964599609</v>
       </c>
       <c r="I38">
-        <v>37.06696141560872</v>
+        <v>38.74433377583821</v>
       </c>
       <c r="L38">
-        <v>43.69007042950333</v>
+        <v>55.9659686249525</v>
       </c>
       <c r="M38">
-        <v>46.56458368189903</v>
+        <v>57.75054715459046</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2036,34 +2045,34 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>37.0499153137207</v>
+        <v>41.33065795898438</v>
       </c>
       <c r="C39">
-        <v>37.50429534912109</v>
+        <v>41.50604248046875</v>
       </c>
       <c r="D39">
-        <v>36.72470855712891</v>
+        <v>39.7232666015625</v>
       </c>
       <c r="E39">
-        <v>36.8132209777832</v>
+        <v>40.02623748779297</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>20203008</v>
       </c>
       <c r="G39">
-        <v>37.51142352116011</v>
+        <v>39.90316225085487</v>
       </c>
       <c r="H39">
-        <v>37.63772315979004</v>
+        <v>39.64247512817383</v>
       </c>
       <c r="I39">
-        <v>37.08443438212077</v>
+        <v>38.7988525390625</v>
       </c>
       <c r="L39">
-        <v>42.07828336078816</v>
+        <v>48.44384102506205</v>
       </c>
       <c r="M39">
-        <v>45.43001546163003</v>
+        <v>52.6131857377118</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2071,34 +2080,34 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>36.82083511352539</v>
+        <v>39.91693496704102</v>
       </c>
       <c r="C40">
-        <v>37.77286148071289</v>
+        <v>40.13107299804688</v>
       </c>
       <c r="D40">
-        <v>36.82083511352539</v>
+        <v>38.59957122802734</v>
       </c>
       <c r="E40">
-        <v>36.94243240356445</v>
+        <v>39.96112823486328</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>12411776</v>
       </c>
       <c r="G40">
-        <v>37.45969705592414</v>
+        <v>39.90843188576472</v>
       </c>
       <c r="H40">
-        <v>37.61183109283447</v>
+        <v>39.73897762298584</v>
       </c>
       <c r="I40">
-        <v>37.1151673634847</v>
+        <v>38.90319086710612</v>
       </c>
       <c r="L40">
-        <v>43.49959762180605</v>
+        <v>48.05110367243424</v>
       </c>
       <c r="M40">
-        <v>46.28433755506374</v>
+        <v>52.34213550515567</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2106,34 +2115,34 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>36.91987991333008</v>
+        <v>39.82749176025391</v>
       </c>
       <c r="C41">
-        <v>37.5404052734375</v>
+        <v>40.09585189819336</v>
       </c>
       <c r="D41">
-        <v>36.28750610351562</v>
+        <v>38.82940292358398</v>
       </c>
       <c r="E41">
-        <v>36.28750610351562</v>
+        <v>38.86299896240234</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>37.35313424206882</v>
+        <v>39.81339252909541</v>
       </c>
       <c r="H41">
-        <v>37.54994850158691</v>
+        <v>39.68352127075195</v>
       </c>
       <c r="I41">
-        <v>37.08394012451172</v>
+        <v>38.96254221598307</v>
       </c>
       <c r="L41">
-        <v>38.16008025977209</v>
+        <v>41.64505343129121</v>
       </c>
       <c r="M41">
-        <v>42.6404437005516</v>
+        <v>47.86341174288017</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2141,37 +2150,34 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>36.01865386962891</v>
+        <v>38.95523071289063</v>
       </c>
       <c r="C42">
-        <v>36.01865386962891</v>
+        <v>39.29507827758789</v>
       </c>
       <c r="D42">
-        <v>32.15253448486328</v>
+        <v>38.10976791381836</v>
       </c>
       <c r="E42">
-        <v>34.09241104125977</v>
+        <v>38.10976791381836</v>
       </c>
       <c r="F42">
-        <v>96889248</v>
+        <v>3378016</v>
       </c>
       <c r="G42">
-        <v>37.05670486017708</v>
+        <v>39.65851756407022</v>
       </c>
       <c r="H42">
-        <v>37.34074172973633</v>
+        <v>39.65164031982422</v>
       </c>
       <c r="I42">
-        <v>37.03153216044108</v>
+        <v>38.95791714986165</v>
       </c>
       <c r="L42">
-        <v>26.08631131332161</v>
+        <v>37.76041178115362</v>
       </c>
       <c r="M42">
-        <v>33.20468856792156</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
+        <v>45.01797938542794</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2179,37 +2185,34 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>34.32380676269531</v>
+        <v>38.05072021484375</v>
       </c>
       <c r="C43">
-        <v>34.53977966308594</v>
+        <v>38.24879455566406</v>
       </c>
       <c r="D43">
-        <v>33.37953948974609</v>
+        <v>37.07102584838867</v>
       </c>
       <c r="E43">
-        <v>33.68011474609375</v>
+        <v>37.44430160522461</v>
       </c>
       <c r="F43">
-        <v>11260688</v>
+        <v>12426880</v>
       </c>
       <c r="G43">
-        <v>36.74974212253314</v>
+        <v>39.45722520417517</v>
       </c>
       <c r="H43">
-        <v>37.12225456237793</v>
+        <v>39.63866386413574</v>
       </c>
       <c r="I43">
-        <v>36.95385526021322</v>
+        <v>38.98794631958008</v>
       </c>
       <c r="L43">
-        <v>24.45157030153418</v>
+        <v>34.55658695529534</v>
       </c>
       <c r="M43">
-        <v>31.78210311917129</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
+        <v>42.60797385683946</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2217,34 +2220,34 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>33.74032211303711</v>
+        <v>37.85703659057617</v>
       </c>
       <c r="C44">
-        <v>34.64182662963867</v>
+        <v>40.37363433837891</v>
       </c>
       <c r="D44">
-        <v>33.71194839477539</v>
+        <v>37.80477142333984</v>
       </c>
       <c r="E44">
-        <v>34.23521423339844</v>
+        <v>39.77201843261719</v>
       </c>
       <c r="F44">
-        <v>2642080</v>
+        <v>50925120</v>
       </c>
       <c r="G44">
-        <v>36.52114867806635</v>
+        <v>39.48584277039717</v>
       </c>
       <c r="H44">
-        <v>36.98029041290283</v>
+        <v>39.73658924102783</v>
       </c>
       <c r="I44">
-        <v>36.90296058654785</v>
+        <v>39.10003255208333</v>
       </c>
       <c r="L44">
-        <v>31.00085556794947</v>
+        <v>50.93750581456719</v>
       </c>
       <c r="M44">
-        <v>35.77189408807455</v>
+        <v>52.23939950205727</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2252,34 +2255,34 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>34.19549560546875</v>
+        <v>39.65804290771485</v>
       </c>
       <c r="C45">
-        <v>34.86125946044922</v>
+        <v>42.54106903076172</v>
       </c>
       <c r="D45">
-        <v>33.91719818115234</v>
+        <v>38.76828002929688</v>
       </c>
       <c r="E45">
-        <v>34.86125946044922</v>
+        <v>40.75754928588867</v>
       </c>
       <c r="F45">
-        <v>1493920</v>
+        <v>42770144</v>
       </c>
       <c r="G45">
-        <v>36.37024965828297</v>
+        <v>39.60145245362367</v>
       </c>
       <c r="H45">
-        <v>36.84415130615234</v>
+        <v>39.89780063629151</v>
       </c>
       <c r="I45">
-        <v>36.88064053853353</v>
+        <v>39.16866391499837</v>
       </c>
       <c r="L45">
-        <v>37.83808645140837</v>
+        <v>56.16384265264549</v>
       </c>
       <c r="M45">
-        <v>40.03173029746008</v>
+        <v>55.63418432378518</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2287,34 +2290,34 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>34.88379669189453</v>
+        <v>40.92012023925781</v>
       </c>
       <c r="C46">
-        <v>36.52949905395508</v>
+        <v>40.92012023925781</v>
       </c>
       <c r="D46">
-        <v>34.88379669189453</v>
+        <v>39.1123275756836</v>
       </c>
       <c r="E46">
-        <v>35.75719833374023</v>
+        <v>39.77861022949219</v>
       </c>
       <c r="F46">
-        <v>14569600</v>
+        <v>5421216</v>
       </c>
       <c r="G46">
-        <v>36.31451771968818</v>
+        <v>39.61755770597535</v>
       </c>
       <c r="H46">
-        <v>36.84245529174805</v>
+        <v>40.02845153808594</v>
       </c>
       <c r="I46">
-        <v>36.90020802815755</v>
+        <v>39.27654507954915</v>
       </c>
       <c r="L46">
-        <v>46.39075131781073</v>
+        <v>50.18939589026233</v>
       </c>
       <c r="M46">
-        <v>45.59306927712201</v>
+        <v>51.70295858431589</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2322,34 +2325,34 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>35.88774108886719</v>
+        <v>39.76502990722656</v>
       </c>
       <c r="C47">
-        <v>36.89710235595703</v>
+        <v>40.47839736938477</v>
       </c>
       <c r="D47">
-        <v>35.45175933837891</v>
+        <v>38.83218383789063</v>
       </c>
       <c r="E47">
-        <v>36.58967590332031</v>
+        <v>39.65708160400391</v>
       </c>
       <c r="F47">
-        <v>6238144</v>
+        <v>27350752</v>
       </c>
       <c r="G47">
-        <v>36.33953210001837</v>
+        <v>39.6211507876143</v>
       </c>
       <c r="H47">
-        <v>36.89408359527588</v>
+        <v>40.19727020263672</v>
       </c>
       <c r="I47">
-        <v>36.91371981302897</v>
+        <v>39.40218734741211</v>
       </c>
       <c r="L47">
-        <v>53.1314549672682</v>
+        <v>49.45467283603306</v>
       </c>
       <c r="M47">
-        <v>50.21316731581111</v>
+        <v>51.21909187258689</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2357,37 +2360,34 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>36.55681991577149</v>
+        <v>39.66539764404297</v>
       </c>
       <c r="C48">
-        <v>40.12995529174805</v>
+        <v>42.13443374633789</v>
       </c>
       <c r="D48">
-        <v>36.42324447631836</v>
+        <v>39.46347045898438</v>
       </c>
       <c r="E48">
-        <v>40.12995529174805</v>
+        <v>41.56867218017578</v>
       </c>
       <c r="F48">
-        <v>40356592</v>
+        <v>17815552</v>
       </c>
       <c r="G48">
-        <v>36.68411602653924</v>
+        <v>39.79819818693807</v>
       </c>
       <c r="H48">
-        <v>37.1125373840332</v>
+        <v>40.52467803955078</v>
       </c>
       <c r="I48">
-        <v>37.0365353902181</v>
+        <v>39.5437452952067</v>
       </c>
       <c r="L48">
-        <v>70.73579534719417</v>
+        <v>59.85433388461331</v>
       </c>
       <c r="M48">
-        <v>64.15396833097188</v>
-      </c>
-      <c r="O48" t="s">
-        <v>195</v>
+        <v>57.89413295498042</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2395,34 +2395,34 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>40.3979721069336</v>
+        <v>41.48398971557617</v>
       </c>
       <c r="C49">
-        <v>40.43948364257812</v>
+        <v>41.8537712097168</v>
       </c>
       <c r="D49">
-        <v>38.56098556518555</v>
+        <v>38.77676391601562</v>
       </c>
       <c r="E49">
-        <v>38.91583633422852</v>
+        <v>38.99697113037109</v>
       </c>
       <c r="F49">
-        <v>24411408</v>
+        <v>29318688</v>
       </c>
       <c r="G49">
-        <v>36.88699969087463</v>
+        <v>39.7253593636138</v>
       </c>
       <c r="H49">
-        <v>37.24046649932861</v>
+        <v>40.57850589752197</v>
       </c>
       <c r="I49">
-        <v>37.1415355682373</v>
+        <v>39.59195340474447</v>
       </c>
       <c r="L49">
-        <v>61.78255260803024</v>
+        <v>45.64161166406633</v>
       </c>
       <c r="M49">
-        <v>58.14131120479914</v>
+        <v>48.31554982568974</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2430,34 +2430,34 @@
         <v>62</v>
       </c>
       <c r="B50">
-        <v>38.87666320800781</v>
+        <v>39.18400955200195</v>
       </c>
       <c r="C50">
-        <v>39.45050430297852</v>
+        <v>39.54296112060547</v>
       </c>
       <c r="D50">
-        <v>38.17056655883789</v>
+        <v>38.6378059387207</v>
       </c>
       <c r="E50">
-        <v>38.39067459106445</v>
+        <v>39.38436508178711</v>
       </c>
       <c r="F50">
-        <v>8166432</v>
+        <v>101568</v>
       </c>
       <c r="G50">
-        <v>37.0236974090737</v>
+        <v>39.69435988344774</v>
       </c>
       <c r="H50">
-        <v>37.22623233795166</v>
+        <v>40.59833202362061</v>
       </c>
       <c r="I50">
-        <v>37.17254892985026</v>
+        <v>39.63706296284993</v>
       </c>
       <c r="L50">
-        <v>58.19801101682344</v>
+        <v>47.74441778679765</v>
       </c>
       <c r="M50">
-        <v>55.70918427280803</v>
+        <v>49.66650470846835</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2465,34 +2465,34 @@
         <v>63</v>
       </c>
       <c r="B51">
-        <v>38.4411735534668</v>
+        <v>39.46632766723633</v>
       </c>
       <c r="C51">
-        <v>38.77805709838867</v>
+        <v>39.84326171875</v>
       </c>
       <c r="D51">
-        <v>36.82722854614258</v>
+        <v>38.22115325927734</v>
       </c>
       <c r="E51">
-        <v>36.83097839355469</v>
+        <v>38.65121078491211</v>
       </c>
       <c r="F51">
-        <v>11808224</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>37.00617749857198</v>
+        <v>39.59952814721722</v>
       </c>
       <c r="H51">
-        <v>37.1275712966919</v>
+        <v>40.47434387207031</v>
       </c>
       <c r="I51">
-        <v>37.14940961201986</v>
+        <v>39.59303245544434</v>
       </c>
       <c r="L51">
-        <v>48.74815094052239</v>
+        <v>44.11131459970466</v>
       </c>
       <c r="M51">
-        <v>49.1352387438535</v>
+        <v>47.15444029561858</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2500,34 +2500,34 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>36.80013656616211</v>
+        <v>38.68970489501953</v>
       </c>
       <c r="C52">
-        <v>37.59363555908203</v>
+        <v>38.70774459838867</v>
       </c>
       <c r="D52">
-        <v>36.43362808227539</v>
+        <v>37.70564270019531</v>
       </c>
       <c r="E52">
-        <v>37.08245849609375</v>
+        <v>37.91524887084961</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>37.01311213471032</v>
+        <v>39.44641184936562</v>
       </c>
       <c r="H52">
-        <v>37.00299739837646</v>
+        <v>40.25406150817871</v>
       </c>
       <c r="I52">
-        <v>37.1096066792806</v>
+        <v>39.56529452006022</v>
       </c>
       <c r="L52">
-        <v>50.21449633192561</v>
+        <v>40.62060295239569</v>
       </c>
       <c r="M52">
-        <v>50.15654441734279</v>
+        <v>44.70980227320599</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2535,34 +2535,34 @@
         <v>65</v>
       </c>
       <c r="B53">
-        <v>37.07147979736328</v>
+        <v>37.80954742431641</v>
       </c>
       <c r="C53">
-        <v>39.36611557006836</v>
+        <v>39.57236480712891</v>
       </c>
       <c r="D53">
-        <v>37.07147979736328</v>
+        <v>37.80954742431641</v>
       </c>
       <c r="E53">
-        <v>38.24851989746094</v>
+        <v>38.74741363525391</v>
       </c>
       <c r="F53">
-        <v>28802720</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>37.12542193132401</v>
+        <v>39.38286655717364</v>
       </c>
       <c r="H53">
-        <v>36.98041973114014</v>
+        <v>40.08399410247803</v>
       </c>
       <c r="I53">
-        <v>37.11622873942057</v>
+        <v>39.60008061726888</v>
       </c>
       <c r="L53">
-        <v>56.67978158624229</v>
+        <v>46.05125327411147</v>
       </c>
       <c r="M53">
-        <v>54.69860368414302</v>
+        <v>47.99296727549459</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2570,34 +2570,34 @@
         <v>66</v>
       </c>
       <c r="B54">
-        <v>38.16539764404297</v>
+        <v>38.84938430786133</v>
       </c>
       <c r="C54">
-        <v>38.55067443847656</v>
+        <v>38.88774871826172</v>
       </c>
       <c r="D54">
-        <v>36.54342651367188</v>
+        <v>38.17967987060547</v>
       </c>
       <c r="E54">
-        <v>36.54342651367188</v>
+        <v>38.62344360351562</v>
       </c>
       <c r="F54">
-        <v>853632</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>37.07251325699199</v>
+        <v>39.31382810684109</v>
       </c>
       <c r="H54">
-        <v>36.86385974884033</v>
+        <v>39.8822156906128</v>
       </c>
       <c r="I54">
-        <v>37.09852638244629</v>
+        <v>39.62707837422689</v>
       </c>
       <c r="L54">
-        <v>46.70265223631559</v>
+        <v>45.3560509700093</v>
       </c>
       <c r="M54">
-        <v>47.83431354650483</v>
+        <v>47.54007335905087</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2605,34 +2605,34 @@
         <v>67</v>
       </c>
       <c r="B55">
-        <v>36.61768341064453</v>
+        <v>38.57712173461914</v>
       </c>
       <c r="C55">
-        <v>36.78407669067383</v>
+        <v>39.05979537963867</v>
       </c>
       <c r="D55">
-        <v>35.85106658935547</v>
+        <v>37.18956756591797</v>
       </c>
       <c r="E55">
-        <v>36.40943145751953</v>
+        <v>37.51573181152344</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>37.01223309340359</v>
+        <v>39.15036480726676</v>
       </c>
       <c r="H55">
-        <v>36.71364974975586</v>
+        <v>39.5716796875</v>
       </c>
       <c r="I55">
-        <v>37.05937271118164</v>
+        <v>39.62649205525716</v>
       </c>
       <c r="L55">
-        <v>45.98699414375067</v>
+        <v>39.38007458933635</v>
       </c>
       <c r="M55">
-        <v>47.33162831472121</v>
+        <v>43.58252673366713</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2640,34 +2640,34 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>36.42912673950195</v>
+        <v>37.54417037963867</v>
       </c>
       <c r="C56">
-        <v>39.2110481262207</v>
+        <v>38.01174545288086</v>
       </c>
       <c r="D56">
-        <v>36.32892608642578</v>
+        <v>37.06558990478516</v>
       </c>
       <c r="E56">
-        <v>38.6986083984375</v>
+        <v>37.84599304199219</v>
       </c>
       <c r="F56">
-        <v>29523120</v>
+        <v>7306640</v>
       </c>
       <c r="G56">
-        <v>37.16553993931576</v>
+        <v>39.03178555587816</v>
       </c>
       <c r="H56">
-        <v>36.74594287872314</v>
+        <v>39.35054702758789</v>
       </c>
       <c r="I56">
-        <v>37.15628903706868</v>
+        <v>39.64917208353678</v>
       </c>
       <c r="L56">
-        <v>58.27548277752814</v>
+        <v>41.9456893655256</v>
       </c>
       <c r="M56">
-        <v>55.86490647505317</v>
+        <v>45.05124846613676</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2675,34 +2675,34 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>38.57566833496094</v>
+        <v>37.95295333862305</v>
       </c>
       <c r="C57">
-        <v>38.57566833496094</v>
+        <v>38.42013931274414</v>
       </c>
       <c r="D57">
-        <v>36.54217529296875</v>
+        <v>35.87990570068359</v>
       </c>
       <c r="E57">
-        <v>36.54217529296875</v>
+        <v>36.7790641784668</v>
       </c>
       <c r="F57">
-        <v>2796800</v>
+        <v>10821072</v>
       </c>
       <c r="G57">
-        <v>37.10887042601149</v>
+        <v>38.82699270338621</v>
       </c>
       <c r="H57">
-        <v>36.70387477874756</v>
+        <v>39.08142814636231</v>
       </c>
       <c r="I57">
-        <v>37.18912455240886</v>
+        <v>39.6657839457194</v>
       </c>
       <c r="L57">
-        <v>46.95445029865797</v>
+        <v>36.35382582514678</v>
       </c>
       <c r="M57">
-        <v>47.97889252075237</v>
+        <v>41.30978604217614</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2710,34 +2710,34 @@
         <v>70</v>
       </c>
       <c r="B58">
-        <v>36.49664306640625</v>
+        <v>36.73856735229492</v>
       </c>
       <c r="C58">
-        <v>36.81135559082031</v>
+        <v>36.87124252319336</v>
       </c>
       <c r="D58">
-        <v>35.35588073730469</v>
+        <v>35.06559371948242</v>
       </c>
       <c r="E58">
-        <v>35.88781356811523</v>
+        <v>35.98482894897461</v>
       </c>
       <c r="F58">
-        <v>8711472</v>
+        <v>9807936</v>
       </c>
       <c r="G58">
-        <v>36.99786525711183</v>
+        <v>38.56861418025788</v>
       </c>
       <c r="H58">
-        <v>36.64694557189942</v>
+        <v>38.81913185119629</v>
       </c>
       <c r="I58">
-        <v>37.19335568745931</v>
+        <v>39.69792772928874</v>
       </c>
       <c r="L58">
-        <v>44.03417092737249</v>
+        <v>32.70275865553239</v>
       </c>
       <c r="M58">
-        <v>45.86321467256759</v>
+        <v>38.73113181359705</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2745,34 +2745,34 @@
         <v>71</v>
       </c>
       <c r="B59">
-        <v>36.12057876586914</v>
+        <v>35.89919281005859</v>
       </c>
       <c r="C59">
-        <v>38.29262161254883</v>
+        <v>37.50437927246094</v>
       </c>
       <c r="D59">
-        <v>35.76283264160156</v>
+        <v>35.76810455322266</v>
       </c>
       <c r="E59">
-        <v>37.32193374633789</v>
+        <v>37.3809928894043</v>
       </c>
       <c r="F59">
-        <v>1347056</v>
+        <v>704480</v>
       </c>
       <c r="G59">
-        <v>37.02732602885965</v>
+        <v>38.4606486083621</v>
       </c>
       <c r="H59">
-        <v>36.67238121032715</v>
+        <v>38.68686962127686</v>
       </c>
       <c r="I59">
-        <v>37.2255116780599</v>
+        <v>39.67994702657064</v>
       </c>
       <c r="L59">
-        <v>51.47517880295468</v>
+        <v>43.85410923781853</v>
       </c>
       <c r="M59">
-        <v>50.96644364128078</v>
+        <v>45.20618924540974</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2780,34 +2780,34 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>37.34993362426758</v>
+        <v>37.39857864379883</v>
       </c>
       <c r="C60">
-        <v>39.13196563720703</v>
+        <v>37.84397506713867</v>
       </c>
       <c r="D60">
-        <v>37.34993362426758</v>
+        <v>36.74989318847656</v>
       </c>
       <c r="E60">
-        <v>37.55072784423828</v>
+        <v>36.85243225097656</v>
       </c>
       <c r="F60">
-        <v>20991248</v>
+        <v>54288</v>
       </c>
       <c r="G60">
-        <v>37.07490801207589</v>
+        <v>38.31444712132705</v>
       </c>
       <c r="H60">
-        <v>36.70279598236084</v>
+        <v>38.53143482208252</v>
       </c>
       <c r="I60">
-        <v>37.18802401224772</v>
+        <v>39.60876668294271</v>
       </c>
       <c r="L60">
-        <v>52.60612726278853</v>
+        <v>40.96319657735039</v>
       </c>
       <c r="M60">
-        <v>51.74791422698833</v>
+        <v>43.33884583607655</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2815,34 +2815,34 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>37.46823501586914</v>
+        <v>36.88370132446289</v>
       </c>
       <c r="C61">
-        <v>38.97902297973633</v>
+        <v>37.22731399536133</v>
       </c>
       <c r="D61">
-        <v>37.38975143432617</v>
+        <v>36.41892242431641</v>
       </c>
       <c r="E61">
-        <v>38.03107833862305</v>
+        <v>37.01845169067383</v>
       </c>
       <c r="F61">
-        <v>11258960</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>37.16183258721654</v>
+        <v>38.19662935490403</v>
       </c>
       <c r="H61">
-        <v>36.78997459411621</v>
+        <v>38.43920745849609</v>
       </c>
       <c r="I61">
-        <v>37.16225331624349</v>
+        <v>39.47168261210124</v>
       </c>
       <c r="L61">
-        <v>55.07895934142527</v>
+        <v>42.30708679940727</v>
       </c>
       <c r="M61">
-        <v>53.42617430753717</v>
+        <v>44.11963599292822</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2850,34 +2850,34 @@
         <v>74</v>
       </c>
       <c r="B62">
-        <v>38.03656387329102</v>
+        <v>37.12331771850586</v>
       </c>
       <c r="C62">
-        <v>40.08903503417969</v>
+        <v>37.62564086914063</v>
       </c>
       <c r="D62">
-        <v>37.84079742431641</v>
+        <v>36.77007675170898</v>
       </c>
       <c r="E62">
-        <v>39.97212600708008</v>
+        <v>37.53589248657227</v>
       </c>
       <c r="F62">
-        <v>17418384</v>
+        <v>1319696</v>
       </c>
       <c r="G62">
-        <v>37.41731380720413</v>
+        <v>38.13656236687387</v>
       </c>
       <c r="H62">
-        <v>37.08396034240722</v>
+        <v>38.41051368713379</v>
       </c>
       <c r="I62">
-        <v>37.17552630106608</v>
+        <v>39.31218249003093</v>
       </c>
       <c r="L62">
-        <v>63.69117832849938</v>
+        <v>46.5715809965889</v>
       </c>
       <c r="M62">
-        <v>59.54879406987958</v>
+        <v>46.58998339457533</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2885,34 +2885,34 @@
         <v>75</v>
       </c>
       <c r="B63">
-        <v>39.98093414306641</v>
+        <v>37.66636276245117</v>
       </c>
       <c r="C63">
-        <v>40.68841552734375</v>
+        <v>39.37830352783203</v>
       </c>
       <c r="D63">
-        <v>38.44095230102539</v>
+        <v>37.44020080566406</v>
       </c>
       <c r="E63">
-        <v>38.74738693237305</v>
+        <v>39.02399444580078</v>
       </c>
       <c r="F63">
-        <v>10541472</v>
+        <v>25185632</v>
       </c>
       <c r="G63">
-        <v>37.53822954585585</v>
+        <v>38.21723801041268</v>
       </c>
       <c r="H63">
-        <v>37.33732395172119</v>
+        <v>38.4894983291626</v>
       </c>
       <c r="I63">
-        <v>37.17710342407226</v>
+        <v>39.20802357991536</v>
       </c>
       <c r="L63">
-        <v>56.06175303271071</v>
+        <v>56.88299433611023</v>
       </c>
       <c r="M63">
-        <v>54.66562511734032</v>
+        <v>53.02203748532854</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2920,1163 +2920,1163 @@
         <v>76</v>
       </c>
       <c r="B64">
-        <v>38.72571563720703</v>
+        <v>38.97436904907227</v>
       </c>
       <c r="C64">
-        <v>38.80649948120117</v>
+        <v>39.51694107055664</v>
       </c>
       <c r="D64">
-        <v>37.70383071899414</v>
+        <v>38.83003234863281</v>
       </c>
       <c r="E64">
-        <v>37.70383071899414</v>
+        <v>38.8597412109375</v>
       </c>
       <c r="F64">
-        <v>459968</v>
+        <v>15779856</v>
       </c>
       <c r="G64">
-        <v>37.55328419795933</v>
+        <v>38.27564739227857</v>
       </c>
       <c r="H64">
-        <v>37.51075477600098</v>
+        <v>38.44388446807861</v>
       </c>
       <c r="I64">
-        <v>37.13807690938314</v>
+        <v>39.08138122558594</v>
       </c>
       <c r="L64">
-        <v>50.28748124743247</v>
+        <v>55.55169129467597</v>
       </c>
       <c r="M64">
-        <v>50.84009118802736</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>52.27373628150173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>37.55565643310547</v>
+        <v>39.03673553466797</v>
       </c>
       <c r="C65">
-        <v>38.46421813964844</v>
+        <v>39.03673553466797</v>
       </c>
       <c r="D65">
-        <v>37.41254425048828</v>
+        <v>37.61481857299805</v>
       </c>
       <c r="E65">
-        <v>37.81351089477539</v>
+        <v>38.0037956237793</v>
       </c>
       <c r="F65">
-        <v>3207184</v>
+        <v>8945664</v>
       </c>
       <c r="G65">
-        <v>37.57694117039716</v>
+        <v>38.25093359514227</v>
       </c>
       <c r="H65">
-        <v>37.65836734771729</v>
+        <v>38.30619678497315</v>
       </c>
       <c r="I65">
-        <v>37.08473955790202</v>
+        <v>38.89062601725261</v>
       </c>
       <c r="L65">
-        <v>50.88562283718277</v>
+        <v>48.84919430247992</v>
       </c>
       <c r="M65">
-        <v>51.22642198396323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>48.43739103890059</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>37.76361846923828</v>
+        <v>38.0122184753418</v>
       </c>
       <c r="C66">
-        <v>37.76361846923828</v>
+        <v>38.16729736328125</v>
       </c>
       <c r="D66">
-        <v>37.11142349243164</v>
+        <v>37.6605339050293</v>
       </c>
       <c r="E66">
-        <v>37.53332138061523</v>
+        <v>37.90879821777344</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>2466720</v>
       </c>
       <c r="G66">
-        <v>37.57297573496243</v>
+        <v>38.21983037901783</v>
       </c>
       <c r="H66">
-        <v>37.74717350006104</v>
+        <v>38.21270618438721</v>
       </c>
       <c r="I66">
-        <v>37.0674254099528</v>
+        <v>38.74529774983724</v>
       </c>
       <c r="L66">
-        <v>49.18485175741473</v>
+        <v>48.1242223935738</v>
       </c>
       <c r="M66">
-        <v>50.14234206648573</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>48.01620665468316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>37.48900985717773</v>
+        <v>37.89498519897461</v>
       </c>
       <c r="C67">
-        <v>37.499755859375</v>
+        <v>39.43784332275391</v>
       </c>
       <c r="D67">
-        <v>36.89276885986328</v>
+        <v>37.73674392700195</v>
       </c>
       <c r="E67">
-        <v>37.16559219360352</v>
+        <v>39.02318954467773</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>17987744</v>
       </c>
       <c r="G67">
-        <v>37.53594086756617</v>
+        <v>38.29286303044146</v>
       </c>
       <c r="H67">
-        <v>37.77596931457519</v>
+        <v>38.1810115814209</v>
       </c>
       <c r="I67">
-        <v>37.06016057332356</v>
+        <v>38.64068934122722</v>
       </c>
       <c r="L67">
-        <v>46.87177058819913</v>
+        <v>56.62046926069493</v>
       </c>
       <c r="M67">
-        <v>48.68610130982405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>53.16144680350574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>37.15750122070312</v>
+        <v>39.09911727905273</v>
       </c>
       <c r="C68">
-        <v>37.15750122070312</v>
+        <v>39.38043975830078</v>
       </c>
       <c r="D68">
-        <v>35.96591186523438</v>
+        <v>37.83589553833008</v>
       </c>
       <c r="E68">
-        <v>36.28070831298828</v>
+        <v>37.83589553833008</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>14155664</v>
       </c>
       <c r="G68">
-        <v>37.42182881715</v>
+        <v>38.2513205311586</v>
       </c>
       <c r="H68">
-        <v>37.58350696563721</v>
+        <v>37.99437274932861</v>
       </c>
       <c r="I68">
-        <v>37.03530426025391</v>
+        <v>38.52752736409505</v>
       </c>
       <c r="L68">
-        <v>41.5783385438645</v>
+        <v>47.32938428339123</v>
       </c>
       <c r="M68">
-        <v>45.27839282853272</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>47.73988642052207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>36.61666870117188</v>
+        <v>37.79072952270508</v>
       </c>
       <c r="C69">
-        <v>37.07530975341797</v>
+        <v>38.33097076416016</v>
       </c>
       <c r="D69">
-        <v>33.93611145019531</v>
+        <v>36.8221321105957</v>
       </c>
       <c r="E69">
-        <v>35.02051544189453</v>
+        <v>36.85520935058594</v>
       </c>
       <c r="F69">
-        <v>19320320</v>
+        <v>2784400</v>
       </c>
       <c r="G69">
-        <v>37.20352760121769</v>
+        <v>38.12440133292472</v>
       </c>
       <c r="H69">
-        <v>37.38874092102051</v>
+        <v>37.88728466033935</v>
       </c>
       <c r="I69">
-        <v>36.97554740905762</v>
+        <v>38.42182642618815</v>
       </c>
       <c r="L69">
-        <v>35.20789960989101</v>
+        <v>41.06736861627771</v>
       </c>
       <c r="M69">
-        <v>40.88904660047746</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>43.76930903702968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>35.14741897583008</v>
+        <v>36.89914321899414</v>
       </c>
       <c r="C70">
-        <v>38.61570358276367</v>
+        <v>37.73918914794922</v>
       </c>
       <c r="D70">
-        <v>34.99958801269531</v>
+        <v>36.89603424072266</v>
       </c>
       <c r="E70">
-        <v>37.92041397094727</v>
+        <v>37.571044921875</v>
       </c>
       <c r="F70">
-        <v>35502768</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>37.26869908937492</v>
+        <v>38.07409620464747</v>
       </c>
       <c r="H70">
-        <v>37.36522789001465</v>
+        <v>37.79661865234375</v>
       </c>
       <c r="I70">
-        <v>37.00814679463704</v>
+        <v>38.34215698242188</v>
       </c>
       <c r="L70">
-        <v>53.6087109234175</v>
+        <v>46.84276045101858</v>
       </c>
       <c r="M70">
-        <v>52.33897308059764</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>47.22002612350491</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>38.02133178710938</v>
+        <v>37.55443954467773</v>
       </c>
       <c r="C71">
-        <v>39.85404586791992</v>
+        <v>39.05265045166016</v>
       </c>
       <c r="D71">
-        <v>37.95203018188477</v>
+        <v>37.55443954467773</v>
       </c>
       <c r="E71">
-        <v>38.98784255981445</v>
+        <v>38.74600982666016</v>
       </c>
       <c r="F71">
-        <v>33239088</v>
+        <v>13141664</v>
       </c>
       <c r="G71">
-        <v>37.42498485941487</v>
+        <v>38.13517926119408</v>
       </c>
       <c r="H71">
-        <v>37.47307109832764</v>
+        <v>37.80135860443115</v>
       </c>
       <c r="I71">
-        <v>37.098158009847</v>
+        <v>38.3382573445638</v>
       </c>
       <c r="L71">
-        <v>58.49041908566715</v>
+        <v>54.98822570772455</v>
       </c>
       <c r="M71">
-        <v>55.73765023062796</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>52.38508471828095</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>39.00520324707031</v>
+        <v>38.99454498291016</v>
       </c>
       <c r="C72">
-        <v>42.22593688964844</v>
+        <v>39.9090576171875</v>
       </c>
       <c r="D72">
-        <v>39.00520324707031</v>
+        <v>38.89388656616211</v>
       </c>
       <c r="E72">
-        <v>41.13097381591797</v>
+        <v>39.50600051879883</v>
       </c>
       <c r="F72">
-        <v>98543120</v>
+        <v>25830992</v>
       </c>
       <c r="G72">
-        <v>37.7618929463697</v>
+        <v>38.25979937552178</v>
       </c>
       <c r="H72">
-        <v>37.67549686431884</v>
+        <v>37.88089618682861</v>
       </c>
       <c r="I72">
-        <v>37.33277676900228</v>
+        <v>38.38479843139648</v>
       </c>
       <c r="L72">
-        <v>66.46185965521555</v>
+        <v>59.50371260655373</v>
       </c>
       <c r="M72">
-        <v>61.65054719167373</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>55.42371600637119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>41.19034957885742</v>
+        <v>39.57548141479492</v>
       </c>
       <c r="C73">
-        <v>42.32094573974609</v>
+        <v>40.19256210327149</v>
       </c>
       <c r="D73">
-        <v>41.19034957885742</v>
+        <v>38.3216438293457</v>
       </c>
       <c r="E73">
-        <v>42.32089614868164</v>
+        <v>38.48817825317383</v>
       </c>
       <c r="F73">
-        <v>53032480</v>
+        <v>9529360</v>
       </c>
       <c r="G73">
-        <v>38.17634778294351</v>
+        <v>38.28056109167197</v>
       </c>
       <c r="H73">
-        <v>37.87911567687988</v>
+        <v>37.86793441772461</v>
       </c>
       <c r="I73">
-        <v>37.62080281575521</v>
+        <v>38.41959431966146</v>
       </c>
       <c r="L73">
-        <v>70.05397308586167</v>
+        <v>51.69087911456896</v>
       </c>
       <c r="M73">
-        <v>64.4871945915889</v>
-      </c>
-      <c r="O73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>50.75239327089386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>42.29841995239258</v>
+        <v>38.60791778564453</v>
       </c>
       <c r="C74">
-        <v>43.06719207763672</v>
+        <v>40.18376541137695</v>
       </c>
       <c r="D74">
-        <v>41.53818893432617</v>
+        <v>38.32729339599609</v>
       </c>
       <c r="E74">
-        <v>42.14876174926758</v>
+        <v>39.82464599609375</v>
       </c>
       <c r="F74">
-        <v>30588480</v>
+        <v>9112048</v>
       </c>
       <c r="G74">
-        <v>38.53747632533661</v>
+        <v>38.4209324466194</v>
       </c>
       <c r="H74">
-        <v>38.15938243865967</v>
+        <v>37.92799453735351</v>
       </c>
       <c r="I74">
-        <v>37.88458773295085</v>
+        <v>38.42134857177734</v>
       </c>
       <c r="L74">
-        <v>68.85380904399516</v>
+        <v>59.53861390642145</v>
       </c>
       <c r="M74">
-        <v>63.75254967338642</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>55.9968360830574</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>42.30155944824219</v>
+        <v>39.65438842773438</v>
       </c>
       <c r="C75">
-        <v>43.28937530517578</v>
+        <v>41.1798095703125</v>
       </c>
       <c r="D75">
-        <v>41.60091018676758</v>
+        <v>39.65438842773438</v>
       </c>
       <c r="E75">
-        <v>42.65901184082031</v>
+        <v>40.95055770874024</v>
       </c>
       <c r="F75">
-        <v>4095392</v>
+        <v>17384768</v>
       </c>
       <c r="G75">
-        <v>38.91216137219876</v>
+        <v>38.65089837953948</v>
       </c>
       <c r="H75">
-        <v>38.47186145782471</v>
+        <v>38.09973583221436</v>
       </c>
       <c r="I75">
-        <v>38.14451281229655</v>
+        <v>38.4277821858724</v>
       </c>
       <c r="L75">
-        <v>70.53707098537127</v>
+        <v>64.93698590569247</v>
       </c>
       <c r="M75">
-        <v>65.02449401273479</v>
-      </c>
-      <c r="O75" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>59.87364564035371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>42.68408584594727</v>
+        <v>41.02898406982422</v>
       </c>
       <c r="C76">
-        <v>45.03996658325195</v>
+        <v>41.79117202758789</v>
       </c>
       <c r="D76">
-        <v>42.62262344360352</v>
+        <v>40.77786636352539</v>
       </c>
       <c r="E76">
-        <v>43.7264518737793</v>
+        <v>40.79090881347656</v>
       </c>
       <c r="F76">
-        <v>28405408</v>
+        <v>26675968</v>
       </c>
       <c r="G76">
-        <v>39.34982414506972</v>
+        <v>38.84544478262467</v>
       </c>
       <c r="H76">
-        <v>38.7232536315918</v>
+        <v>38.24698162078857</v>
       </c>
       <c r="I76">
-        <v>38.41015459696452</v>
+        <v>38.46152547200521</v>
       </c>
       <c r="L76">
-        <v>73.86165807868004</v>
+        <v>63.58372321093159</v>
       </c>
       <c r="M76">
-        <v>67.58694566089643</v>
-      </c>
-      <c r="O76" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>59.07882583112898</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>43.89977645874024</v>
+        <v>40.86825180053711</v>
       </c>
       <c r="C77">
-        <v>44.44422149658203</v>
+        <v>41.12247848510742</v>
       </c>
       <c r="D77">
-        <v>42.10846710205078</v>
+        <v>40.15608215332031</v>
       </c>
       <c r="E77">
-        <v>42.26864624023438</v>
+        <v>41.12247848510742</v>
       </c>
       <c r="F77">
-        <v>8212448</v>
+        <v>13406272</v>
       </c>
       <c r="G77">
-        <v>39.61517160826651</v>
+        <v>39.05244784648674</v>
       </c>
       <c r="H77">
-        <v>39.00957717895508</v>
+        <v>38.46415233612061</v>
       </c>
       <c r="I77">
-        <v>38.59945360819498</v>
+        <v>38.51037203470866</v>
       </c>
       <c r="L77">
-        <v>62.94838446134185</v>
+        <v>65.27455055475126</v>
       </c>
       <c r="M77">
-        <v>61.01260693616625</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>60.25878686273997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>42.36142349243164</v>
+        <v>40.87207794189453</v>
       </c>
       <c r="C78">
-        <v>43.28216934204102</v>
+        <v>41.40517425537109</v>
       </c>
       <c r="D78">
-        <v>41.53428268432617</v>
+        <v>40.61582946777344</v>
       </c>
       <c r="E78">
-        <v>42.16144180297852</v>
+        <v>41.40517425537109</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>39.84665071687669</v>
+        <v>39.26633206547623</v>
       </c>
       <c r="H78">
-        <v>39.32325859069825</v>
+        <v>38.73516960144043</v>
       </c>
       <c r="I78">
-        <v>38.667169825236</v>
+        <v>38.50492210388184</v>
       </c>
       <c r="L78">
-        <v>62.18821616917776</v>
+        <v>66.75510936725297</v>
       </c>
       <c r="M78">
-        <v>60.54619044354077</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>61.28382774393452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>42.09714126586914</v>
+        <v>41.44073486328125</v>
       </c>
       <c r="C79">
-        <v>42.19252777099609</v>
+        <v>41.77974700927734</v>
       </c>
       <c r="D79">
-        <v>41.05344009399414</v>
+        <v>39.60834503173828</v>
       </c>
       <c r="E79">
-        <v>41.23075485229492</v>
+        <v>40.88875198364258</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>5690512</v>
       </c>
       <c r="G79">
-        <v>39.97247836555107</v>
+        <v>39.41382478530953</v>
       </c>
       <c r="H79">
-        <v>39.51869964599609</v>
+        <v>38.91055755615234</v>
       </c>
       <c r="I79">
-        <v>38.74433377583821</v>
+        <v>38.56798146565755</v>
       </c>
       <c r="L79">
-        <v>55.62740756714766</v>
+        <v>61.37709118526337</v>
       </c>
       <c r="M79">
-        <v>56.5075400064271</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>58.32431606807292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>41.33065795898438</v>
+        <v>40.9877815246582</v>
       </c>
       <c r="C80">
-        <v>41.50604248046875</v>
+        <v>40.9877815246582</v>
       </c>
       <c r="D80">
-        <v>39.7232666015625</v>
+        <v>39.77275085449219</v>
       </c>
       <c r="E80">
-        <v>40.02623748779297</v>
+        <v>40.21124267578125</v>
       </c>
       <c r="F80">
-        <v>20203008</v>
+        <v>3012128</v>
       </c>
       <c r="G80">
-        <v>39.97736555848215</v>
+        <v>39.48631732080696</v>
       </c>
       <c r="H80">
-        <v>39.64247512817383</v>
+        <v>39.07849807739258</v>
       </c>
       <c r="I80">
-        <v>38.7988525390625</v>
+        <v>38.59554405212403</v>
       </c>
       <c r="L80">
-        <v>48.22041105685781</v>
+        <v>54.8545982444755</v>
       </c>
       <c r="M80">
-        <v>51.70089926570401</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>54.59907449299447</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>39.91693496704102</v>
+        <v>40.20747756958008</v>
       </c>
       <c r="C81">
-        <v>40.13107299804688</v>
+        <v>41.74629211425781</v>
       </c>
       <c r="D81">
-        <v>38.59957122802734</v>
+        <v>40.114013671875</v>
       </c>
       <c r="E81">
-        <v>39.96112823486328</v>
+        <v>40.78159713745117</v>
       </c>
       <c r="F81">
-        <v>12411776</v>
+        <v>2494992</v>
       </c>
       <c r="G81">
-        <v>39.97588943815316</v>
+        <v>39.60407003141098</v>
       </c>
       <c r="H81">
-        <v>39.73897762298584</v>
+        <v>39.26665534973144</v>
       </c>
       <c r="I81">
-        <v>38.90319086710612</v>
+        <v>38.66655693054199</v>
       </c>
       <c r="L81">
-        <v>47.83309635408644</v>
+        <v>58.98275259723915</v>
       </c>
       <c r="M81">
-        <v>51.44615611049077</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>57.08413472870699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>39.82749176025391</v>
+        <v>40.7688102722168</v>
       </c>
       <c r="C82">
-        <v>40.09585189819336</v>
+        <v>40.86236190795898</v>
       </c>
       <c r="D82">
-        <v>38.82940292358398</v>
+        <v>40.25844192504883</v>
       </c>
       <c r="E82">
-        <v>38.86299896240234</v>
+        <v>40.64562606811523</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>39.87471757672127</v>
+        <v>39.69875694383864</v>
       </c>
       <c r="H82">
-        <v>39.68352127075195</v>
+        <v>39.42214202880859</v>
       </c>
       <c r="I82">
-        <v>38.96254221598307</v>
+        <v>38.75756950378418</v>
       </c>
       <c r="L82">
-        <v>41.50722882253893</v>
+        <v>57.57086744670449</v>
       </c>
       <c r="M82">
-        <v>47.22017583103431</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>56.29306734122145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>38.95523071289063</v>
+        <v>40.68392944335938</v>
       </c>
       <c r="C83">
-        <v>39.29507827758789</v>
+        <v>40.68392944335938</v>
       </c>
       <c r="D83">
-        <v>38.10976791381836</v>
+        <v>39.5631217956543</v>
       </c>
       <c r="E83">
-        <v>38.10976791381836</v>
+        <v>39.77925109863281</v>
       </c>
       <c r="F83">
-        <v>3378016</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>39.71426760736646</v>
+        <v>39.70607459427447</v>
       </c>
       <c r="H83">
-        <v>39.65164031982422</v>
+        <v>39.4599048614502</v>
       </c>
       <c r="I83">
-        <v>38.95791714986165</v>
+        <v>38.79196408589681</v>
       </c>
       <c r="L83">
-        <v>37.66360599583111</v>
+        <v>49.13918586768691</v>
       </c>
       <c r="M83">
-        <v>44.51884455228927</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>51.40489405296382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>38.05072021484375</v>
+        <v>39.6531867980957</v>
       </c>
       <c r="C84">
-        <v>38.24879455566406</v>
+        <v>41.10789489746094</v>
       </c>
       <c r="D84">
-        <v>37.07102584838867</v>
+        <v>39.6531867980957</v>
       </c>
       <c r="E84">
-        <v>37.44430160522461</v>
+        <v>41.03430557250977</v>
       </c>
       <c r="F84">
-        <v>12426880</v>
+        <v>5896816</v>
       </c>
       <c r="G84">
-        <v>39.5079070617172</v>
+        <v>39.82682286502313</v>
       </c>
       <c r="H84">
-        <v>39.63866386413574</v>
+        <v>39.56863307952881</v>
       </c>
       <c r="I84">
-        <v>38.98794631958008</v>
+        <v>38.87232615152995</v>
       </c>
       <c r="L84">
-        <v>34.4892799414183</v>
+        <v>58.9395885939117</v>
       </c>
       <c r="M84">
-        <v>42.22079596550523</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>57.20253232867192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>37.85703659057617</v>
+        <v>41.23683547973633</v>
       </c>
       <c r="C85">
-        <v>40.37363433837891</v>
+        <v>41.23683547973633</v>
       </c>
       <c r="D85">
-        <v>37.80477142333984</v>
+        <v>39.80056381225586</v>
       </c>
       <c r="E85">
-        <v>39.77201843261719</v>
+        <v>40.09151840209961</v>
       </c>
       <c r="F85">
-        <v>50925120</v>
+        <v>1676240</v>
       </c>
       <c r="G85">
-        <v>39.53191718634447</v>
+        <v>39.85088609566644</v>
       </c>
       <c r="H85">
-        <v>39.73658924102783</v>
+        <v>39.67301921844482</v>
       </c>
       <c r="I85">
-        <v>39.10003255208333</v>
+        <v>38.95818570454915</v>
       </c>
       <c r="L85">
-        <v>50.80502683876885</v>
+        <v>50.68584593247839</v>
       </c>
       <c r="M85">
-        <v>51.62686775167838</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>52.16758337178852</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>39.65804290771485</v>
+        <v>39.78284454345703</v>
       </c>
       <c r="C86">
-        <v>42.54106903076172</v>
+        <v>39.94667053222656</v>
       </c>
       <c r="D86">
-        <v>38.76828002929688</v>
+        <v>39.00162887573242</v>
       </c>
       <c r="E86">
-        <v>40.75754928588867</v>
+        <v>39.22182846069336</v>
       </c>
       <c r="F86">
-        <v>42770144</v>
+        <v>15064288</v>
       </c>
       <c r="G86">
-        <v>39.64333828630303</v>
+        <v>39.79369903794161</v>
       </c>
       <c r="H86">
-        <v>39.89780063629151</v>
+        <v>39.73867073059082</v>
       </c>
       <c r="I86">
-        <v>39.16866391499837</v>
+        <v>39.00404688517253</v>
       </c>
       <c r="L86">
-        <v>56.02204360187698</v>
+        <v>44.25446511831611</v>
       </c>
       <c r="M86">
-        <v>54.96935431879511</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>47.97279277754483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>40.92012023925781</v>
+        <v>39.21693801879883</v>
       </c>
       <c r="C87">
-        <v>40.92012023925781</v>
+        <v>39.5876350402832</v>
       </c>
       <c r="D87">
-        <v>39.1123275756836</v>
+        <v>38.65936660766602</v>
       </c>
       <c r="E87">
-        <v>39.77861022949219</v>
+        <v>39.11214065551758</v>
       </c>
       <c r="F87">
-        <v>5421216</v>
+        <v>796288</v>
       </c>
       <c r="G87">
-        <v>39.65563573568386</v>
+        <v>39.73173918499398</v>
       </c>
       <c r="H87">
-        <v>40.02845153808594</v>
+        <v>39.74311828613281</v>
       </c>
       <c r="I87">
-        <v>39.27654507954915</v>
+        <v>39.08181610107422</v>
       </c>
       <c r="L87">
-        <v>50.0865043686432</v>
+        <v>43.47180780219841</v>
       </c>
       <c r="M87">
-        <v>51.18592089450346</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>47.45451133959433</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>39.76502990722656</v>
+        <v>39.12139511108398</v>
       </c>
       <c r="C88">
-        <v>40.47839736938477</v>
+        <v>39.15752410888672</v>
       </c>
       <c r="D88">
-        <v>38.83218383789063</v>
+        <v>38.16765594482422</v>
       </c>
       <c r="E88">
-        <v>39.65708160400391</v>
+        <v>38.27783584594727</v>
       </c>
       <c r="F88">
-        <v>27350752</v>
+        <v>4457888</v>
       </c>
       <c r="G88">
-        <v>39.65576717825841</v>
+        <v>39.59956615417155</v>
       </c>
       <c r="H88">
-        <v>40.19727020263672</v>
+        <v>39.76521530151367</v>
       </c>
       <c r="I88">
-        <v>39.40218734741211</v>
+        <v>39.15824966430664</v>
       </c>
       <c r="L88">
-        <v>49.35617596836199</v>
+        <v>37.75780766644833</v>
       </c>
       <c r="M88">
-        <v>50.71921253886393</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>43.59641951285301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>39.66539764404297</v>
+        <v>38.28081512451172</v>
       </c>
       <c r="C89">
-        <v>42.13443374633789</v>
+        <v>38.97000503540039</v>
       </c>
       <c r="D89">
-        <v>39.46347045898438</v>
+        <v>38.24120712280273</v>
       </c>
       <c r="E89">
-        <v>41.56867218017578</v>
+        <v>38.8084602355957</v>
       </c>
       <c r="F89">
-        <v>17815552</v>
+        <v>170864</v>
       </c>
       <c r="G89">
-        <v>39.82966763297816</v>
+        <v>39.52764743430102</v>
       </c>
       <c r="H89">
-        <v>40.52467803955078</v>
+        <v>39.86287784576416</v>
       </c>
       <c r="I89">
-        <v>39.5437452952067</v>
+        <v>39.20583190917969</v>
       </c>
       <c r="L89">
-        <v>59.74347372781931</v>
+        <v>43.10833033503227</v>
       </c>
       <c r="M89">
-        <v>57.31243087367602</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>46.57160681629787</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>41.48398971557617</v>
+        <v>38.84338760375977</v>
       </c>
       <c r="C90">
-        <v>41.8537712097168</v>
+        <v>38.84338760375977</v>
       </c>
       <c r="D90">
-        <v>38.77676391601562</v>
+        <v>37.91400909423828</v>
       </c>
       <c r="E90">
-        <v>38.99697113037109</v>
+        <v>38.36438369750977</v>
       </c>
       <c r="F90">
-        <v>29318688</v>
+        <v>1682240</v>
       </c>
       <c r="G90">
-        <v>39.75396795092298</v>
+        <v>39.42189618550182</v>
       </c>
       <c r="H90">
-        <v>40.57850589752197</v>
+        <v>39.9025447845459</v>
       </c>
       <c r="I90">
-        <v>39.59195340474447</v>
+        <v>39.25623029073079</v>
       </c>
       <c r="L90">
-        <v>45.59097576276229</v>
+        <v>39.88060749467298</v>
       </c>
       <c r="M90">
-        <v>48.00703260004266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>44.45805267025486</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>39.18400955200195</v>
+        <v>38.35610961914063</v>
       </c>
       <c r="C91">
-        <v>39.54296112060547</v>
+        <v>38.35610961914063</v>
       </c>
       <c r="D91">
-        <v>38.6378059387207</v>
+        <v>37.37497711181641</v>
       </c>
       <c r="E91">
-        <v>39.38436508178711</v>
+        <v>37.64506530761719</v>
       </c>
       <c r="F91">
-        <v>101568</v>
+        <v>1144352</v>
       </c>
       <c r="G91">
-        <v>39.72036769009244</v>
+        <v>39.26036610569412</v>
       </c>
       <c r="H91">
-        <v>40.59833202362061</v>
+        <v>39.84749755859375</v>
       </c>
       <c r="I91">
-        <v>39.63706296284993</v>
+        <v>39.27711741129557</v>
       </c>
       <c r="L91">
-        <v>47.6909052437455</v>
+        <v>35.09248731810215</v>
       </c>
       <c r="M91">
-        <v>49.34134292356723</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>41.19666632807189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>39.46632766723633</v>
+        <v>37.72400665283203</v>
       </c>
       <c r="C92">
-        <v>39.84326171875</v>
+        <v>37.73012924194336</v>
       </c>
       <c r="D92">
-        <v>38.22115325927734</v>
+        <v>36.06509399414063</v>
       </c>
       <c r="E92">
-        <v>38.65121078491211</v>
+        <v>36.06509399414063</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>9793216</v>
       </c>
       <c r="G92">
-        <v>39.62317160780331</v>
+        <v>38.96988682282562</v>
       </c>
       <c r="H92">
-        <v>40.47434387207031</v>
+        <v>39.67545223236084</v>
       </c>
       <c r="I92">
-        <v>39.59303245544434</v>
+        <v>39.22809079488118</v>
       </c>
       <c r="L92">
-        <v>44.06957827518257</v>
+        <v>27.06339981105498</v>
       </c>
       <c r="M92">
-        <v>46.88884306711012</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>35.10503102347802</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>38.68970489501953</v>
+        <v>35.79669570922852</v>
       </c>
       <c r="C93">
-        <v>38.70774459838867</v>
+        <v>36.33332824707031</v>
       </c>
       <c r="D93">
-        <v>37.70564270019531</v>
+        <v>35.58524322509766</v>
       </c>
       <c r="E93">
-        <v>37.91524887084961</v>
+        <v>35.94554901123047</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>12479792</v>
       </c>
       <c r="G93">
-        <v>39.46790590444389</v>
+        <v>38.69494702177151</v>
       </c>
       <c r="H93">
-        <v>40.25406150817871</v>
+        <v>39.54832077026367</v>
       </c>
       <c r="I93">
-        <v>39.56529452006022</v>
+        <v>39.12547594706218</v>
       </c>
       <c r="L93">
-        <v>40.58898820583875</v>
+        <v>26.54639770648804</v>
       </c>
       <c r="M93">
-        <v>44.49783236460333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>34.68709806143333</v>
+      </c>
+      <c r="N93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>37.80954742431641</v>
+        <v>35.95107650756836</v>
       </c>
       <c r="C94">
-        <v>39.57236480712891</v>
+        <v>36.03211212158203</v>
       </c>
       <c r="D94">
-        <v>37.80954742431641</v>
+        <v>35.10987854003906</v>
       </c>
       <c r="E94">
-        <v>38.74741363525391</v>
+        <v>35.54829025268555</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>4185744</v>
       </c>
       <c r="G94">
-        <v>39.4024066072448</v>
+        <v>38.40888731549096</v>
       </c>
       <c r="H94">
-        <v>40.08399410247803</v>
+        <v>39.33450298309326</v>
       </c>
       <c r="I94">
-        <v>39.60008061726888</v>
+        <v>39.01509424845378</v>
       </c>
       <c r="L94">
-        <v>46.01287580872209</v>
+        <v>24.77689402684627</v>
       </c>
       <c r="M94">
-        <v>47.74270457508563</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>33.26963387281182</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>38.84938430786133</v>
+        <v>35.58317565917969</v>
       </c>
       <c r="C95">
-        <v>38.88774871826172</v>
+        <v>36.83605575561523</v>
       </c>
       <c r="D95">
-        <v>38.17967987060547</v>
+        <v>35.57868576049805</v>
       </c>
       <c r="E95">
-        <v>38.62344360351562</v>
+        <v>36.34748077392578</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>6640688</v>
       </c>
       <c r="G95">
-        <v>39.33159178872396</v>
+        <v>38.22148672080322</v>
       </c>
       <c r="H95">
-        <v>39.8822156906128</v>
+        <v>39.10434913635254</v>
       </c>
       <c r="I95">
-        <v>39.62707837422689</v>
+        <v>38.95988375345866</v>
       </c>
       <c r="L95">
-        <v>45.31946844110684</v>
+        <v>34.63750570600097</v>
       </c>
       <c r="M95">
-        <v>47.29906297469039</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>38.69698005167903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>38.57712173461914</v>
+        <v>36.29097366333008</v>
       </c>
       <c r="C96">
-        <v>39.05979537963867</v>
+        <v>36.8156852722168</v>
       </c>
       <c r="D96">
-        <v>37.18956756591797</v>
+        <v>36.24888229370117</v>
       </c>
       <c r="E96">
-        <v>37.51573181152344</v>
+        <v>36.76647567749024</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>39.16651360897846</v>
+        <v>38.08921298959295</v>
       </c>
       <c r="H96">
-        <v>39.5716796875</v>
+        <v>38.90312747955322</v>
       </c>
       <c r="I96">
-        <v>39.62649205525716</v>
+        <v>38.92180633544922</v>
       </c>
       <c r="L96">
-        <v>39.35738680493316</v>
+        <v>39.32833317491222</v>
       </c>
       <c r="M96">
-        <v>43.41685861610329</v>
+        <v>41.38845466284751</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4084,34 +4084,34 @@
         <v>109</v>
       </c>
       <c r="B97">
-        <v>37.54417037963867</v>
+        <v>36.67838668823242</v>
       </c>
       <c r="C97">
-        <v>38.01174545288086</v>
+        <v>37.2929916381836</v>
       </c>
       <c r="D97">
-        <v>37.06558990478516</v>
+        <v>35.60177993774414</v>
       </c>
       <c r="E97">
-        <v>37.84599304199219</v>
+        <v>35.60177993774414</v>
       </c>
       <c r="F97">
-        <v>7306640</v>
+        <v>3659568</v>
       </c>
       <c r="G97">
-        <v>39.04646628470698</v>
+        <v>37.86308271215215</v>
       </c>
       <c r="H97">
-        <v>39.35054702758789</v>
+        <v>38.62709255218506</v>
       </c>
       <c r="I97">
-        <v>39.64917208353678</v>
+        <v>38.80775934855144</v>
       </c>
       <c r="L97">
-        <v>41.92022605436499</v>
+        <v>32.11975875562739</v>
       </c>
       <c r="M97">
-        <v>44.86974402971203</v>
+        <v>36.58063579732487</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4119,34 +4119,34 @@
         <v>110</v>
       </c>
       <c r="B98">
-        <v>37.95295333862305</v>
+        <v>35.44232177734375</v>
       </c>
       <c r="C98">
-        <v>38.42013931274414</v>
+        <v>36.85237884521485</v>
       </c>
       <c r="D98">
-        <v>35.87990570068359</v>
+        <v>33.88700866699219</v>
       </c>
       <c r="E98">
-        <v>36.7790641784668</v>
+        <v>36.28841781616211</v>
       </c>
       <c r="F98">
-        <v>10821072</v>
+        <v>14045168</v>
       </c>
       <c r="G98">
-        <v>38.84033882050332</v>
+        <v>37.71993135797123</v>
       </c>
       <c r="H98">
-        <v>39.08142814636231</v>
+        <v>38.37125473022461</v>
       </c>
       <c r="I98">
-        <v>39.6657839457194</v>
+        <v>38.7561767578125</v>
       </c>
       <c r="L98">
-        <v>36.33880827352428</v>
+        <v>39.47725812969902</v>
       </c>
       <c r="M98">
-        <v>41.19014743632776</v>
+        <v>40.93662785186726</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4154,34 +4154,34 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>36.73856735229492</v>
+        <v>36.34880447387695</v>
       </c>
       <c r="C99">
-        <v>36.87124252319336</v>
+        <v>36.50164794921875</v>
       </c>
       <c r="D99">
-        <v>35.06559371948242</v>
+        <v>36.03754043579102</v>
       </c>
       <c r="E99">
-        <v>35.98482894897461</v>
+        <v>36.03754043579102</v>
       </c>
       <c r="F99">
-        <v>9807936</v>
+        <v>904512</v>
       </c>
       <c r="G99">
-        <v>38.58074701400071</v>
+        <v>37.56698672868212</v>
       </c>
       <c r="H99">
-        <v>38.81913185119629</v>
+        <v>38.12869415283203</v>
       </c>
       <c r="I99">
-        <v>39.69792772928874</v>
+        <v>38.72892112731934</v>
       </c>
       <c r="L99">
-        <v>32.6933921915238</v>
+        <v>37.79346089668869</v>
       </c>
       <c r="M99">
-        <v>38.64925594054489</v>
+        <v>39.85938355170825</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4189,34 +4189,34 @@
         <v>112</v>
       </c>
       <c r="B100">
-        <v>35.89919281005859</v>
+        <v>36.10344314575195</v>
       </c>
       <c r="C100">
-        <v>37.50437927246094</v>
+        <v>36.3137092590332</v>
       </c>
       <c r="D100">
-        <v>35.76810455322266</v>
+        <v>35.61268997192383</v>
       </c>
       <c r="E100">
-        <v>37.3809928894043</v>
+        <v>35.78007507324219</v>
       </c>
       <c r="F100">
-        <v>704480</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>38.47167845721922</v>
+        <v>37.40454021455122</v>
       </c>
       <c r="H100">
-        <v>38.68686962127686</v>
+        <v>37.90713577270508</v>
       </c>
       <c r="I100">
-        <v>39.67994702657064</v>
+        <v>38.66922213236491</v>
       </c>
       <c r="L100">
-        <v>43.83573031118122</v>
+        <v>36.01970914009443</v>
       </c>
       <c r="M100">
-        <v>45.06456117683184</v>
+        <v>38.73290179562488</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4224,34 +4224,34 @@
         <v>113</v>
       </c>
       <c r="B101">
-        <v>37.39857864379883</v>
+        <v>35.84298706054688</v>
       </c>
       <c r="C101">
-        <v>37.84397506713867</v>
+        <v>36.17475891113281</v>
       </c>
       <c r="D101">
-        <v>36.74989318847656</v>
+        <v>35.70874786376953</v>
       </c>
       <c r="E101">
-        <v>36.85243225097656</v>
+        <v>35.88285446166992</v>
       </c>
       <c r="F101">
-        <v>54288</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>38.3244742566517</v>
+        <v>37.26620514610747</v>
       </c>
       <c r="H101">
-        <v>38.53143482208252</v>
+        <v>37.66219863891602</v>
       </c>
       <c r="I101">
-        <v>39.60876668294271</v>
+        <v>38.57378362019857</v>
       </c>
       <c r="L101">
-        <v>40.94858617769035</v>
+        <v>37.34040703364911</v>
       </c>
       <c r="M101">
-        <v>43.22190429880954</v>
+        <v>39.46834315194157</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4259,34 +4259,34 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>36.88370132446289</v>
+        <v>35.80437850952148</v>
       </c>
       <c r="C102">
-        <v>37.22731399536133</v>
+        <v>35.86286926269531</v>
       </c>
       <c r="D102">
-        <v>36.41892242431641</v>
+        <v>35.1441650390625</v>
       </c>
       <c r="E102">
-        <v>37.01845169067383</v>
+        <v>35.3866081237793</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>38.20574493247189</v>
+        <v>37.09533268953217</v>
       </c>
       <c r="H102">
-        <v>38.43920745849609</v>
+        <v>37.39924774169922</v>
       </c>
       <c r="I102">
-        <v>39.47168261210124</v>
+        <v>38.43647054036458</v>
       </c>
       <c r="L102">
-        <v>42.29164659498976</v>
+        <v>33.57573917864618</v>
       </c>
       <c r="M102">
-        <v>43.99649687227404</v>
+        <v>37.1496090286077</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4294,34 +4294,34 @@
         <v>115</v>
       </c>
       <c r="B103">
-        <v>37.12331771850586</v>
+        <v>35.37406539916992</v>
       </c>
       <c r="C103">
-        <v>37.62564086914063</v>
+        <v>35.49847412109375</v>
       </c>
       <c r="D103">
-        <v>36.77007675170898</v>
+        <v>35.08746719360352</v>
       </c>
       <c r="E103">
-        <v>37.53589248657227</v>
+        <v>35.26648712158203</v>
       </c>
       <c r="F103">
-        <v>1319696</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>38.14484925557193</v>
+        <v>36.9290740015367</v>
       </c>
       <c r="H103">
-        <v>38.41051368713379</v>
+        <v>37.17360954284668</v>
       </c>
       <c r="I103">
-        <v>39.31218249003093</v>
+        <v>38.32908083597819</v>
       </c>
       <c r="L103">
-        <v>46.55386589792951</v>
+        <v>32.67854894682068</v>
       </c>
       <c r="M103">
-        <v>46.44865944286647</v>
+        <v>36.58925570967062</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4329,34 +4329,34 @@
         <v>116</v>
       </c>
       <c r="B104">
-        <v>37.66636276245117</v>
+        <v>35.2237548828125</v>
       </c>
       <c r="C104">
-        <v>39.37830352783203</v>
+        <v>35.30960083007812</v>
       </c>
       <c r="D104">
-        <v>37.44020080566406</v>
+        <v>34.81180953979492</v>
       </c>
       <c r="E104">
-        <v>39.02399444580078</v>
+        <v>35.13357925415039</v>
       </c>
       <c r="F104">
-        <v>25185632</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>38.22477154559273</v>
+        <v>36.76584720631976</v>
       </c>
       <c r="H104">
-        <v>38.4894983291626</v>
+        <v>36.87857322692871</v>
       </c>
       <c r="I104">
-        <v>39.20802357991536</v>
+        <v>38.17271194458008</v>
       </c>
       <c r="L104">
-        <v>56.86203064935064</v>
+        <v>31.6265975109599</v>
       </c>
       <c r="M104">
-        <v>52.84353389597335</v>
+        <v>35.94324252699599</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4364,34 +4364,34 @@
         <v>117</v>
       </c>
       <c r="B105">
-        <v>38.97436904907227</v>
+        <v>35.07735443115234</v>
       </c>
       <c r="C105">
-        <v>39.51694107055664</v>
+        <v>36.31726837158203</v>
       </c>
       <c r="D105">
-        <v>38.83003234863281</v>
+        <v>35.07073593139648</v>
       </c>
       <c r="E105">
-        <v>38.8597412109375</v>
+        <v>35.39406204223633</v>
       </c>
       <c r="F105">
-        <v>15779856</v>
+        <v>7423768</v>
       </c>
       <c r="G105">
-        <v>38.28249606062408</v>
+        <v>36.64113946413035</v>
       </c>
       <c r="H105">
-        <v>38.44388446807861</v>
+        <v>36.64370040893554</v>
       </c>
       <c r="I105">
-        <v>39.08138122558594</v>
+        <v>37.98749542236328</v>
       </c>
       <c r="L105">
-        <v>55.53205836422019</v>
+        <v>36.15787954926273</v>
       </c>
       <c r="M105">
-        <v>52.10393185805957</v>
+        <v>38.24455752778861</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4399,34 +4399,34 @@
         <v>118</v>
       </c>
       <c r="B106">
-        <v>39.03673553466797</v>
+        <v>35.39362335205078</v>
       </c>
       <c r="C106">
-        <v>39.03673553466797</v>
+        <v>36.67428588867188</v>
       </c>
       <c r="D106">
-        <v>37.61481857299805</v>
+        <v>34.8430290222168</v>
       </c>
       <c r="E106">
-        <v>38.0037956237793</v>
+        <v>36.67214584350586</v>
       </c>
       <c r="F106">
-        <v>8945664</v>
+        <v>10589832</v>
       </c>
       <c r="G106">
-        <v>38.25715965727455</v>
+        <v>36.64395822589176</v>
       </c>
       <c r="H106">
-        <v>38.30619678497315</v>
+        <v>36.51621627807617</v>
       </c>
       <c r="I106">
-        <v>38.89062601725261</v>
+        <v>37.85020332336425</v>
       </c>
       <c r="L106">
-        <v>48.83564977736901</v>
+        <v>53.25727484196351</v>
       </c>
       <c r="M106">
-        <v>48.30942758138509</v>
+        <v>48.09747005411621</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4434,34 +4434,34 @@
         <v>119</v>
       </c>
       <c r="B107">
-        <v>38.0122184753418</v>
+        <v>36.48614501953125</v>
       </c>
       <c r="C107">
-        <v>38.16729736328125</v>
+        <v>36.60921859741211</v>
       </c>
       <c r="D107">
-        <v>37.6605339050293</v>
+        <v>35.92966842651367</v>
       </c>
       <c r="E107">
-        <v>37.90879821777344</v>
+        <v>36.1709213256836</v>
       </c>
       <c r="F107">
-        <v>2466720</v>
+        <v>1681264</v>
       </c>
       <c r="G107">
-        <v>38.22549043550172</v>
+        <v>36.60095487132738</v>
       </c>
       <c r="H107">
-        <v>38.21270618438721</v>
+        <v>36.36915531158448</v>
       </c>
       <c r="I107">
-        <v>38.74529774983724</v>
+        <v>37.68515141805013</v>
       </c>
       <c r="L107">
-        <v>48.11127527687685</v>
+        <v>47.62905662853162</v>
       </c>
       <c r="M107">
-        <v>47.89255547839704</v>
+        <v>45.06113839271561</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4469,34 +4469,34 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>37.89498519897461</v>
+        <v>36.1908073425293</v>
       </c>
       <c r="C108">
-        <v>39.43784332275391</v>
+        <v>36.41012191772461</v>
       </c>
       <c r="D108">
-        <v>37.73674392700195</v>
+        <v>36.01194763183594</v>
       </c>
       <c r="E108">
-        <v>39.02318954467773</v>
+        <v>36.14784622192383</v>
       </c>
       <c r="F108">
-        <v>17987744</v>
+        <v>1191896</v>
       </c>
       <c r="G108">
-        <v>38.29800853633591</v>
+        <v>36.55976317592706</v>
       </c>
       <c r="H108">
-        <v>38.1810115814209</v>
+        <v>36.26265583038331</v>
       </c>
       <c r="I108">
-        <v>38.64068934122722</v>
+        <v>37.50990715026855</v>
       </c>
       <c r="L108">
-        <v>56.60575557490796</v>
+        <v>47.36978364413194</v>
       </c>
       <c r="M108">
-        <v>53.01461256099473</v>
+        <v>44.92054399310744</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4504,34 +4504,34 @@
         <v>121</v>
       </c>
       <c r="B109">
-        <v>39.09911727905273</v>
+        <v>36.12003707885742</v>
       </c>
       <c r="C109">
-        <v>39.38043975830078</v>
+        <v>37.28072357177734</v>
       </c>
       <c r="D109">
-        <v>37.83589553833008</v>
+        <v>35.98575592041016</v>
       </c>
       <c r="E109">
-        <v>37.83589553833008</v>
+        <v>36.48643493652344</v>
       </c>
       <c r="F109">
-        <v>14155664</v>
+        <v>18528936</v>
       </c>
       <c r="G109">
-        <v>38.25599826378992</v>
+        <v>36.55309697234491</v>
       </c>
       <c r="H109">
-        <v>37.99437274932861</v>
+        <v>36.1465545654297</v>
       </c>
       <c r="I109">
-        <v>38.52752736409505</v>
+        <v>37.36316324869792</v>
       </c>
       <c r="L109">
-        <v>47.32063666573297</v>
+        <v>51.70919728760803</v>
       </c>
       <c r="M109">
-        <v>47.64139590115806</v>
+        <v>47.50856505765812</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4539,34 +4539,34 @@
         <v>122</v>
       </c>
       <c r="B110">
-        <v>37.79072952270508</v>
+        <v>36.38850784301758</v>
       </c>
       <c r="C110">
-        <v>38.33097076416016</v>
+        <v>36.96775436401367</v>
       </c>
       <c r="D110">
-        <v>36.8221321105957</v>
+        <v>36.08006286621094</v>
       </c>
       <c r="E110">
-        <v>36.85520935058594</v>
+        <v>36.72137832641602</v>
       </c>
       <c r="F110">
-        <v>2784400</v>
+        <v>6968064</v>
       </c>
       <c r="G110">
-        <v>38.12865381713501</v>
+        <v>36.56839527726046</v>
       </c>
       <c r="H110">
-        <v>37.88728466033935</v>
+        <v>36.064404296875</v>
       </c>
       <c r="I110">
-        <v>38.42182642618815</v>
+        <v>37.24683443705241</v>
       </c>
       <c r="L110">
-        <v>41.06185566095315</v>
+        <v>54.62940437050753</v>
       </c>
       <c r="M110">
-        <v>43.70144321221868</v>
+        <v>49.28911749604146</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4574,34 +4574,34 @@
         <v>123</v>
       </c>
       <c r="B111">
-        <v>36.89914321899414</v>
+        <v>36.73712539672852</v>
       </c>
       <c r="C111">
-        <v>37.73918914794922</v>
+        <v>36.74212265014648</v>
       </c>
       <c r="D111">
-        <v>36.89603424072266</v>
+        <v>35.95919036865234</v>
       </c>
       <c r="E111">
-        <v>37.571044921875</v>
+        <v>35.95919036865234</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>245672</v>
       </c>
       <c r="G111">
-        <v>38.0779620993841</v>
+        <v>36.51301301284155</v>
       </c>
       <c r="H111">
-        <v>37.79661865234375</v>
+        <v>35.98011054992676</v>
       </c>
       <c r="I111">
-        <v>38.34215698242188</v>
+        <v>37.08608754475912</v>
       </c>
       <c r="L111">
-        <v>46.83605911881713</v>
+        <v>44.75255491531906</v>
       </c>
       <c r="M111">
-        <v>47.13795909644775</v>
+        <v>44.06682040862056</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4609,2373 +4609,2379 @@
         <v>124</v>
       </c>
       <c r="B112">
-        <v>37.55443954467773</v>
+        <v>35.88566589355469</v>
       </c>
       <c r="C112">
-        <v>39.05265045166016</v>
+        <v>36.33895874023438</v>
       </c>
       <c r="D112">
-        <v>37.55443954467773</v>
+        <v>34.49682235717773</v>
       </c>
       <c r="E112">
-        <v>38.74600982666016</v>
+        <v>34.88161087036133</v>
       </c>
       <c r="F112">
-        <v>13141664</v>
+        <v>5828368</v>
       </c>
       <c r="G112">
-        <v>38.13869371095465</v>
+        <v>36.36470372716153</v>
       </c>
       <c r="H112">
-        <v>37.80135860443115</v>
+        <v>35.9209363937378</v>
       </c>
       <c r="I112">
-        <v>38.3382573445638</v>
+        <v>36.89395370483398</v>
       </c>
       <c r="L112">
-        <v>54.9804866325088</v>
+        <v>34.75758802508704</v>
       </c>
       <c r="M112">
-        <v>52.28622719242334</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>37.94552888460059</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>38.99454498291016</v>
+        <v>35.00209045410156</v>
       </c>
       <c r="C113">
-        <v>39.9090576171875</v>
+        <v>35.00209045410156</v>
       </c>
       <c r="D113">
-        <v>38.89388656616211</v>
+        <v>34.45302963256836</v>
       </c>
       <c r="E113">
-        <v>39.50600051879883</v>
+        <v>34.45302963256836</v>
       </c>
       <c r="F113">
-        <v>25830992</v>
+        <v>4346816</v>
       </c>
       <c r="G113">
-        <v>38.26299432984958</v>
+        <v>36.1909151731076</v>
       </c>
       <c r="H113">
-        <v>37.88089618682861</v>
+        <v>35.84631042480469</v>
       </c>
       <c r="I113">
-        <v>38.38479843139648</v>
+        <v>36.7164129892985</v>
       </c>
       <c r="L113">
-        <v>59.4957201131849</v>
+        <v>31.59979178126244</v>
       </c>
       <c r="M113">
-        <v>55.31748516673843</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>35.81464161284112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>39.57548141479492</v>
+        <v>34.4077033996582</v>
       </c>
       <c r="C114">
-        <v>40.19256210327149</v>
+        <v>34.4077033996582</v>
       </c>
       <c r="D114">
-        <v>38.3216438293457</v>
+        <v>33.54421234130859</v>
       </c>
       <c r="E114">
-        <v>38.48817825317383</v>
+        <v>33.90584182739258</v>
       </c>
       <c r="F114">
-        <v>9529360</v>
+        <v>16962800</v>
       </c>
       <c r="G114">
-        <v>38.28346559560633</v>
+        <v>35.98318123258804</v>
       </c>
       <c r="H114">
-        <v>37.86793441772461</v>
+        <v>35.76418800354004</v>
       </c>
       <c r="I114">
-        <v>38.41959431966146</v>
+        <v>36.47879753112793</v>
       </c>
       <c r="L114">
-        <v>51.68548342868172</v>
+        <v>27.95219987594717</v>
       </c>
       <c r="M114">
-        <v>50.67430732443091</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>33.24751661836821</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>38.60791778564453</v>
+        <v>33.87913513183594</v>
       </c>
       <c r="C115">
-        <v>40.18376541137695</v>
+        <v>34.52865219116211</v>
       </c>
       <c r="D115">
-        <v>38.32729339599609</v>
+        <v>33.32810592651367</v>
       </c>
       <c r="E115">
-        <v>39.82464599609375</v>
+        <v>33.94359970092773</v>
       </c>
       <c r="F115">
-        <v>9112048</v>
+        <v>1688888</v>
       </c>
       <c r="G115">
-        <v>38.42357290474155</v>
+        <v>35.79776472970983</v>
       </c>
       <c r="H115">
-        <v>37.92799453735351</v>
+        <v>35.64399394989015</v>
       </c>
       <c r="I115">
-        <v>38.42134857177734</v>
+        <v>36.27386690775553</v>
       </c>
       <c r="L115">
-        <v>59.53279256663404</v>
+        <v>28.59207039851765</v>
       </c>
       <c r="M115">
-        <v>55.90773812014045</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>33.60119010330504</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>39.65438842773438</v>
+        <v>33.97046661376953</v>
       </c>
       <c r="C116">
-        <v>41.1798095703125</v>
+        <v>34.53411102294922</v>
       </c>
       <c r="D116">
-        <v>39.65438842773438</v>
+        <v>33.67221069335938</v>
       </c>
       <c r="E116">
-        <v>40.95055770874024</v>
+        <v>34.18552017211914</v>
       </c>
       <c r="F116">
-        <v>17384768</v>
+        <v>19397888</v>
       </c>
       <c r="G116">
-        <v>38.65329879601416</v>
+        <v>35.65119704265614</v>
       </c>
       <c r="H116">
-        <v>38.09973583221436</v>
+        <v>35.51494617462158</v>
       </c>
       <c r="I116">
-        <v>38.4277821858724</v>
+        <v>36.10598996480306</v>
       </c>
       <c r="L116">
-        <v>64.93116496896918</v>
+        <v>32.88829767919639</v>
       </c>
       <c r="M116">
-        <v>59.77935897253347</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>35.94299900295523</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>41.02898406982422</v>
+        <v>34.22475433349609</v>
       </c>
       <c r="C117">
-        <v>41.79117202758789</v>
+        <v>35.6311149597168</v>
       </c>
       <c r="D117">
-        <v>40.77786636352539</v>
+        <v>33.75384902954102</v>
       </c>
       <c r="E117">
-        <v>40.79090881347656</v>
+        <v>33.75521087646484</v>
       </c>
       <c r="F117">
-        <v>26675968</v>
+        <v>30972528</v>
       </c>
       <c r="G117">
-        <v>38.84762697941983</v>
+        <v>35.47883466391147</v>
       </c>
       <c r="H117">
-        <v>38.24698162078857</v>
+        <v>35.42261772155761</v>
       </c>
       <c r="I117">
-        <v>38.46152547200521</v>
+        <v>35.92742563883463</v>
       </c>
       <c r="L117">
-        <v>63.57821407931903</v>
+        <v>29.35424983986334</v>
       </c>
       <c r="M117">
-        <v>58.9884191113457</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>33.66839223791212</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>40.86825180053711</v>
+        <v>33.84505081176758</v>
       </c>
       <c r="C118">
-        <v>41.12247848510742</v>
+        <v>35.03804016113281</v>
       </c>
       <c r="D118">
-        <v>40.15608215332031</v>
+        <v>33.31797409057617</v>
       </c>
       <c r="E118">
-        <v>41.12247848510742</v>
+        <v>34.60860061645508</v>
       </c>
       <c r="F118">
-        <v>13406272</v>
+        <v>8978880</v>
       </c>
       <c r="G118">
-        <v>39.05443166175506</v>
+        <v>35.39972247777907</v>
       </c>
       <c r="H118">
-        <v>38.46415233612061</v>
+        <v>35.33862686157227</v>
       </c>
       <c r="I118">
-        <v>38.51037203470866</v>
+        <v>35.80511779785157</v>
       </c>
       <c r="L118">
-        <v>65.26907019225428</v>
+        <v>43.01591965558458</v>
       </c>
       <c r="M118">
-        <v>60.16718292827319</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>41.56621537162673</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>40.87207794189453</v>
+        <v>34.5441780090332</v>
       </c>
       <c r="C119">
-        <v>41.40517425537109</v>
+        <v>34.98246002197266</v>
       </c>
       <c r="D119">
-        <v>40.61582946777344</v>
+        <v>33.32639694213867</v>
       </c>
       <c r="E119">
-        <v>41.40517425537109</v>
+        <v>33.32639694213867</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>12209824</v>
       </c>
       <c r="G119">
-        <v>39.26813553390197</v>
+        <v>35.2112383381754</v>
       </c>
       <c r="H119">
-        <v>38.73516960144043</v>
+        <v>35.20306968688965</v>
       </c>
       <c r="I119">
-        <v>38.50492210388184</v>
+        <v>35.62238235473633</v>
       </c>
       <c r="L119">
-        <v>66.74967234889704</v>
+        <v>32.41900296266695</v>
       </c>
       <c r="M119">
-        <v>61.1913665603149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>34.85182369829264</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>41.44073486328125</v>
+        <v>33.37345504760742</v>
       </c>
       <c r="C120">
-        <v>41.77974700927734</v>
+        <v>33.5136604309082</v>
       </c>
       <c r="D120">
-        <v>39.60834503173828</v>
+        <v>30.92228507995605</v>
       </c>
       <c r="E120">
-        <v>40.88875198364258</v>
+        <v>30.92828178405762</v>
       </c>
       <c r="F120">
-        <v>5690512</v>
+        <v>29444512</v>
       </c>
       <c r="G120">
-        <v>39.41546430206021</v>
+        <v>34.82187865143742</v>
       </c>
       <c r="H120">
-        <v>38.91055755615234</v>
+        <v>34.96048002243042</v>
       </c>
       <c r="I120">
-        <v>38.56798146565755</v>
+        <v>35.37451229095459</v>
       </c>
       <c r="L120">
-        <v>61.37272766481556</v>
+        <v>21.3515907790957</v>
       </c>
       <c r="M120">
-        <v>58.24513548771846</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>26.29612258969019</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>40.9877815246582</v>
+        <v>31.04644393920898</v>
       </c>
       <c r="C121">
-        <v>40.9877815246582</v>
+        <v>32.04976654052734</v>
       </c>
       <c r="D121">
-        <v>39.77275085449219</v>
+        <v>30.46247291564941</v>
       </c>
       <c r="E121">
-        <v>40.21124267578125</v>
+        <v>32.02253723144531</v>
       </c>
       <c r="F121">
-        <v>3012128</v>
+        <v>19157920</v>
       </c>
       <c r="G121">
-        <v>39.48780779058031</v>
+        <v>34.56739306780177</v>
       </c>
       <c r="H121">
-        <v>39.07849807739258</v>
+        <v>34.76746416091919</v>
       </c>
       <c r="I121">
-        <v>38.59554405212403</v>
+        <v>35.18709468841553</v>
       </c>
       <c r="L121">
-        <v>54.85138725106738</v>
+        <v>33.07918331579713</v>
       </c>
       <c r="M121">
-        <v>54.53534243633563</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>34.23009485067958</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>40.20747756958008</v>
+        <v>32.08880615234375</v>
       </c>
       <c r="C122">
-        <v>41.74629211425781</v>
+        <v>32.14122772216797</v>
       </c>
       <c r="D122">
-        <v>40.114013671875</v>
+        <v>31.30854988098145</v>
       </c>
       <c r="E122">
-        <v>40.78159713745117</v>
+        <v>31.62117385864257</v>
       </c>
       <c r="F122">
-        <v>2494992</v>
+        <v>3033776</v>
       </c>
       <c r="G122">
-        <v>39.6054250039322</v>
+        <v>34.2995549578782</v>
       </c>
       <c r="H122">
-        <v>39.26665534973144</v>
+        <v>34.57919244766235</v>
       </c>
       <c r="I122">
-        <v>38.66655693054199</v>
+        <v>35.03896401723226</v>
       </c>
       <c r="L122">
-        <v>58.97943906494393</v>
+        <v>31.16178311325779</v>
       </c>
       <c r="M122">
-        <v>57.01731958599448</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>32.83396017831539</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>40.7688102722168</v>
+        <v>31.5082893371582</v>
       </c>
       <c r="C123">
-        <v>40.86236190795898</v>
+        <v>32.91036987304688</v>
       </c>
       <c r="D123">
-        <v>40.25844192504883</v>
+        <v>31.37389945983887</v>
       </c>
       <c r="E123">
-        <v>40.64562606811523</v>
+        <v>32.91036987304688</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1831328</v>
       </c>
       <c r="G123">
-        <v>39.69998873703975</v>
+        <v>34.17326540471171</v>
       </c>
       <c r="H123">
-        <v>39.42214202880859</v>
+        <v>34.46138658523559</v>
       </c>
       <c r="I123">
-        <v>38.75756950378418</v>
+        <v>34.9377913792928</v>
       </c>
       <c r="L123">
-        <v>57.56776546233058</v>
+        <v>43.0832982492439</v>
       </c>
       <c r="M123">
-        <v>56.22923580647591</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>41.13851447016123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>40.68392944335938</v>
+        <v>32.91263961791992</v>
       </c>
       <c r="C124">
-        <v>40.68392944335938</v>
+        <v>33.38901901245117</v>
       </c>
       <c r="D124">
-        <v>39.5631217956543</v>
+        <v>32.18753433227539</v>
       </c>
       <c r="E124">
-        <v>39.77925109863281</v>
+        <v>32.18753433227539</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>39.70719440627548</v>
+        <v>33.99274439812659</v>
       </c>
       <c r="H124">
-        <v>39.4599048614502</v>
+        <v>34.31408433914184</v>
       </c>
       <c r="I124">
-        <v>38.79196408589681</v>
+        <v>34.8257661819458</v>
       </c>
       <c r="L124">
-        <v>49.13721222385753</v>
+        <v>38.84043535777833</v>
       </c>
       <c r="M124">
-        <v>51.35821914800756</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>38.28059190420277</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>39.6531867980957</v>
+        <v>32.1762809753418</v>
       </c>
       <c r="C125">
-        <v>41.10789489746094</v>
+        <v>33.56114196777344</v>
       </c>
       <c r="D125">
-        <v>39.6531867980957</v>
+        <v>32.05598449707031</v>
       </c>
       <c r="E125">
-        <v>41.03430557250977</v>
+        <v>33.32255935668945</v>
       </c>
       <c r="F125">
-        <v>5896816</v>
+        <v>1871232</v>
       </c>
       <c r="G125">
-        <v>39.82784087593313</v>
+        <v>33.93181848526866</v>
       </c>
       <c r="H125">
-        <v>39.56863307952881</v>
+        <v>34.2105092048645</v>
       </c>
       <c r="I125">
-        <v>38.87232615152995</v>
+        <v>34.72493546803792</v>
       </c>
       <c r="L125">
-        <v>58.93736269952466</v>
+        <v>47.90353528420236</v>
       </c>
       <c r="M125">
-        <v>57.14926580612313</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>44.76896288122996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>41.23683547973633</v>
+        <v>33.43244934082031</v>
       </c>
       <c r="C126">
-        <v>41.23683547973633</v>
+        <v>34.32789611816406</v>
       </c>
       <c r="D126">
-        <v>39.80056381225586</v>
+        <v>33.36284637451172</v>
       </c>
       <c r="E126">
-        <v>40.09151840209961</v>
+        <v>33.39278411865234</v>
       </c>
       <c r="F126">
-        <v>1676240</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>39.85181156013009</v>
+        <v>33.88281536103081</v>
       </c>
       <c r="H126">
-        <v>39.67301921844482</v>
+        <v>34.04654111862182</v>
       </c>
       <c r="I126">
-        <v>38.95818570454915</v>
+        <v>34.61247908274333</v>
       </c>
       <c r="L126">
-        <v>50.6843898401438</v>
+        <v>48.43540026405755</v>
       </c>
       <c r="M126">
-        <v>52.12861986969796</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>45.15314326520128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>39.78284454345703</v>
+        <v>33.44939422607422</v>
       </c>
       <c r="C127">
-        <v>39.94667053222656</v>
+        <v>33.89479827880859</v>
       </c>
       <c r="D127">
-        <v>39.00162887573242</v>
+        <v>32.85907363891602</v>
       </c>
       <c r="E127">
-        <v>39.22182846069336</v>
+        <v>33.19742584228516</v>
       </c>
       <c r="F127">
-        <v>15064288</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>39.79454036927221</v>
+        <v>33.82050722296303</v>
       </c>
       <c r="H127">
-        <v>39.73867073059082</v>
+        <v>33.89786634445191</v>
       </c>
       <c r="I127">
-        <v>39.00404688517253</v>
+        <v>34.53233394622803</v>
       </c>
       <c r="L127">
-        <v>44.25350544819241</v>
+        <v>46.9357467280404</v>
       </c>
       <c r="M127">
-        <v>47.94433090816271</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>44.23140223914383</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>39.21693801879883</v>
+        <v>33.25008773803711</v>
       </c>
       <c r="C128">
-        <v>39.5876350402832</v>
+        <v>33.62103652954102</v>
       </c>
       <c r="D128">
-        <v>38.65936660766602</v>
+        <v>32.68569946289062</v>
       </c>
       <c r="E128">
-        <v>39.11214065551758</v>
+        <v>32.78039169311523</v>
       </c>
       <c r="F128">
-        <v>796288</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>39.73250403165815</v>
+        <v>33.72595126570414</v>
       </c>
       <c r="H128">
-        <v>39.74311828613281</v>
+        <v>33.72949361801147</v>
       </c>
       <c r="I128">
-        <v>39.08181610107422</v>
+        <v>34.41539974212647</v>
       </c>
       <c r="L128">
-        <v>43.47090236109334</v>
+        <v>43.6873012169083</v>
       </c>
       <c r="M128">
-        <v>47.42725769677185</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>42.24869446088672</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>39.12139511108398</v>
+        <v>32.83093643188477</v>
       </c>
       <c r="C129">
-        <v>39.15752410888672</v>
+        <v>33.13254165649414</v>
       </c>
       <c r="D129">
-        <v>38.16765594482422</v>
+        <v>32.40627670288086</v>
       </c>
       <c r="E129">
-        <v>38.27783584594727</v>
+        <v>33.09025573730469</v>
       </c>
       <c r="F129">
-        <v>4457888</v>
+        <v>550192</v>
       </c>
       <c r="G129">
-        <v>39.6002614693208</v>
+        <v>33.66816076312237</v>
       </c>
       <c r="H129">
-        <v>39.76521530151367</v>
+        <v>33.55968465805054</v>
       </c>
       <c r="I129">
-        <v>39.15824966430664</v>
+        <v>34.31715691884359</v>
       </c>
       <c r="L129">
-        <v>37.75725749085072</v>
+        <v>46.76697749975007</v>
       </c>
       <c r="M129">
-        <v>43.577542549024</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>44.24841572572531</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>38.28081512451172</v>
+        <v>33.04484176635742</v>
       </c>
       <c r="C130">
-        <v>38.97000503540039</v>
+        <v>33.04484176635742</v>
       </c>
       <c r="D130">
-        <v>38.24120712280273</v>
+        <v>32.05239868164062</v>
       </c>
       <c r="E130">
-        <v>38.8084602355957</v>
+        <v>32.23458099365234</v>
       </c>
       <c r="F130">
-        <v>170864</v>
+        <v>711248</v>
       </c>
       <c r="G130">
-        <v>39.52827953898215</v>
+        <v>33.53783532953418</v>
       </c>
       <c r="H130">
-        <v>39.86287784576416</v>
+        <v>33.33534479141235</v>
       </c>
       <c r="I130">
-        <v>39.20583190917969</v>
+        <v>34.19897378285726</v>
       </c>
       <c r="L130">
-        <v>43.10762524004829</v>
+        <v>39.97525382360672</v>
       </c>
       <c r="M130">
-        <v>46.54922067757882</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>40.11734997241712</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>38.84338760375977</v>
+        <v>32.19448852539062</v>
       </c>
       <c r="C131">
-        <v>38.84338760375977</v>
+        <v>32.25321578979492</v>
       </c>
       <c r="D131">
-        <v>37.91400909423828</v>
+        <v>31.50083923339844</v>
       </c>
       <c r="E131">
-        <v>38.36438369750977</v>
+        <v>31.80541229248047</v>
       </c>
       <c r="F131">
-        <v>1682240</v>
+        <v>1003160</v>
       </c>
       <c r="G131">
-        <v>39.42247082612103</v>
+        <v>33.38034232616566</v>
       </c>
       <c r="H131">
-        <v>39.9025447845459</v>
+        <v>33.12765588760376</v>
       </c>
       <c r="I131">
-        <v>39.25623029073079</v>
+        <v>34.06305904388428</v>
       </c>
       <c r="L131">
-        <v>39.88006804365435</v>
+        <v>36.94764786024727</v>
       </c>
       <c r="M131">
-        <v>44.43973521494856</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>38.19144656354711</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>38.35610961914063</v>
+        <v>31.87856864929199</v>
       </c>
       <c r="C132">
-        <v>38.35610961914063</v>
+        <v>32.36580276489258</v>
       </c>
       <c r="D132">
-        <v>37.37497711181641</v>
+        <v>31.43961143493652</v>
       </c>
       <c r="E132">
-        <v>37.64506530761719</v>
+        <v>32.12055969238281</v>
       </c>
       <c r="F132">
-        <v>1144352</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>39.26088850625704</v>
+        <v>33.2658166321854</v>
       </c>
       <c r="H132">
-        <v>39.84749755859375</v>
+        <v>32.98960332870483</v>
       </c>
       <c r="I132">
-        <v>39.27711741129557</v>
+        <v>33.95419076283773</v>
       </c>
       <c r="L132">
-        <v>35.0921599423891</v>
+        <v>40.66035967934575</v>
       </c>
       <c r="M132">
-        <v>41.18405843569607</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>40.45212555618556</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>37.72400665283203</v>
+        <v>32.16020965576172</v>
       </c>
       <c r="C133">
-        <v>37.73012924194336</v>
+        <v>32.25254058837891</v>
       </c>
       <c r="D133">
-        <v>36.06509399414063</v>
+        <v>30.93789863586425</v>
       </c>
       <c r="E133">
-        <v>36.06509399414063</v>
+        <v>30.93789863586425</v>
       </c>
       <c r="F133">
-        <v>9793216</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>38.97036173242827</v>
+        <v>33.05418772342893</v>
       </c>
       <c r="H133">
-        <v>39.67545223236084</v>
+        <v>32.81384677886963</v>
       </c>
       <c r="I133">
-        <v>39.22809079488118</v>
+        <v>33.80990447998047</v>
       </c>
       <c r="L133">
-        <v>27.06333784077128</v>
+        <v>32.56494070571404</v>
       </c>
       <c r="M133">
-        <v>35.10123825326293</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>35.24269051932701</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>35.79669570922852</v>
+        <v>31.06783866882324</v>
       </c>
       <c r="C134">
-        <v>36.33332824707031</v>
+        <v>31.99318122863769</v>
       </c>
       <c r="D134">
-        <v>35.58524322509766</v>
+        <v>30.84530639648437</v>
       </c>
       <c r="E134">
-        <v>35.94554901123047</v>
+        <v>31.95884704589844</v>
       </c>
       <c r="F134">
-        <v>12479792</v>
+        <v>8265104</v>
       </c>
       <c r="G134">
-        <v>38.69537875777392</v>
+        <v>32.95461129819888</v>
       </c>
       <c r="H134">
-        <v>39.54832077026367</v>
+        <v>32.71649703979492</v>
       </c>
       <c r="I134">
-        <v>39.12547594706218</v>
+        <v>33.70408007303874</v>
       </c>
       <c r="L134">
-        <v>26.54634895247753</v>
+        <v>43.49138383335362</v>
       </c>
       <c r="M134">
-        <v>34.68382174755094</v>
-      </c>
-      <c r="N134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>42.16666845501821</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>35.95107650756836</v>
+        <v>32.00870513916016</v>
       </c>
       <c r="C135">
-        <v>36.03211212158203</v>
+        <v>32.11318206787109</v>
       </c>
       <c r="D135">
-        <v>35.10987854003906</v>
+        <v>31.72537231445312</v>
       </c>
       <c r="E135">
-        <v>35.54829025268555</v>
+        <v>31.80972671508789</v>
       </c>
       <c r="F135">
-        <v>4185744</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>38.40927980276589</v>
+        <v>32.85053088155243</v>
       </c>
       <c r="H135">
-        <v>39.33450298309326</v>
+        <v>32.60980339050293</v>
       </c>
       <c r="I135">
-        <v>39.01509424845378</v>
+        <v>33.58460222880046</v>
       </c>
       <c r="L135">
-        <v>24.77688696009547</v>
+        <v>42.36348453955385</v>
       </c>
       <c r="M135">
-        <v>33.26802468718739</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>41.46922256864036</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>35.58317565917969</v>
+        <v>31.80144691467285</v>
       </c>
       <c r="C136">
-        <v>36.83605575561523</v>
+        <v>31.97071647644043</v>
       </c>
       <c r="D136">
-        <v>35.57868576049805</v>
+        <v>31.15066909790039</v>
       </c>
       <c r="E136">
-        <v>36.34748077392578</v>
+        <v>31.8844051361084</v>
       </c>
       <c r="F136">
-        <v>6640688</v>
+        <v>583544</v>
       </c>
       <c r="G136">
-        <v>38.22184352741678</v>
+        <v>32.76270126833025</v>
       </c>
       <c r="H136">
-        <v>39.10434913635254</v>
+        <v>32.49474763870239</v>
       </c>
       <c r="I136">
-        <v>38.95988375345866</v>
+        <v>33.42501087188721</v>
       </c>
       <c r="L136">
-        <v>34.63731344838616</v>
+        <v>43.19348067224112</v>
       </c>
       <c r="M136">
-        <v>38.69010744925991</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>41.98672401762287</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>36.29097366333008</v>
+        <v>31.85408592224121</v>
       </c>
       <c r="C137">
-        <v>36.8156852722168</v>
+        <v>32.01833343505859</v>
       </c>
       <c r="D137">
-        <v>36.24888229370117</v>
+        <v>31.5322208404541</v>
       </c>
       <c r="E137">
-        <v>36.76647567749024</v>
+        <v>31.70643615722656</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>231704</v>
       </c>
       <c r="G137">
-        <v>38.08953735924164</v>
+        <v>32.66667716732082</v>
       </c>
       <c r="H137">
-        <v>38.90312747955322</v>
+        <v>32.39230890274048</v>
       </c>
       <c r="I137">
-        <v>38.92180633544922</v>
+        <v>33.27619469960531</v>
       </c>
       <c r="L137">
-        <v>39.32807253016872</v>
+        <v>41.58784690515903</v>
       </c>
       <c r="M137">
-        <v>41.37932582495951</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>41.05512604961169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>36.67838668823242</v>
+        <v>31.78214836120605</v>
       </c>
       <c r="C138">
-        <v>37.2929916381836</v>
+        <v>33.57694244384766</v>
       </c>
       <c r="D138">
-        <v>35.60177993774414</v>
+        <v>31.78214836120605</v>
       </c>
       <c r="E138">
-        <v>35.60177993774414</v>
+        <v>33.52540969848633</v>
       </c>
       <c r="F138">
-        <v>3659568</v>
+        <v>10548680</v>
       </c>
       <c r="G138">
-        <v>37.86337759365095</v>
+        <v>32.74474376106314</v>
       </c>
       <c r="H138">
-        <v>38.62709255218506</v>
+        <v>32.33814935684204</v>
       </c>
       <c r="I138">
-        <v>38.80775934855144</v>
+        <v>33.18878014882406</v>
       </c>
       <c r="L138">
-        <v>32.11964903167659</v>
+        <v>59.07873713575152</v>
       </c>
       <c r="M138">
-        <v>36.5766050510782</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>52.62508338137147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>35.44232177734375</v>
+        <v>33.54190826416016</v>
       </c>
       <c r="C139">
-        <v>36.85237884521485</v>
+        <v>34.05374145507812</v>
       </c>
       <c r="D139">
-        <v>33.88700866699219</v>
+        <v>32.89947891235352</v>
       </c>
       <c r="E139">
-        <v>36.28841781616211</v>
+        <v>34.03343963623047</v>
       </c>
       <c r="F139">
-        <v>14045168</v>
+        <v>10141896</v>
       </c>
       <c r="G139">
-        <v>37.72019943206106</v>
+        <v>32.8618979315329</v>
       </c>
       <c r="H139">
-        <v>38.37125473022461</v>
+        <v>32.37350149154663</v>
       </c>
       <c r="I139">
-        <v>38.7561767578125</v>
+        <v>33.10701363881429</v>
       </c>
       <c r="L139">
-        <v>39.47706643111189</v>
+        <v>62.59775755365966</v>
       </c>
       <c r="M139">
-        <v>40.9294658535192</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>55.26609396894446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>36.34880447387695</v>
+        <v>33.97257614135742</v>
       </c>
       <c r="C140">
-        <v>36.50164794921875</v>
+        <v>34.44386291503906</v>
       </c>
       <c r="D140">
-        <v>36.03754043579102</v>
+        <v>33.97257614135742</v>
       </c>
       <c r="E140">
-        <v>36.03754043579102</v>
+        <v>34.11090850830078</v>
       </c>
       <c r="F140">
-        <v>904512</v>
+        <v>8031968</v>
       </c>
       <c r="G140">
-        <v>37.56723043240014</v>
+        <v>32.97544434760271</v>
       </c>
       <c r="H140">
-        <v>38.12869415283203</v>
+        <v>32.53263282775879</v>
       </c>
       <c r="I140">
-        <v>38.72892112731934</v>
+        <v>33.01999797821045</v>
       </c>
       <c r="L140">
-        <v>37.79329794013022</v>
+        <v>63.14150941244196</v>
       </c>
       <c r="M140">
-        <v>39.85323049341658</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>55.6719045499105</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>36.10344314575195</v>
+        <v>34.10076522827148</v>
       </c>
       <c r="C141">
-        <v>36.3137092590332</v>
+        <v>34.25823211669922</v>
       </c>
       <c r="D141">
-        <v>35.61268997192383</v>
+        <v>33.65242385864258</v>
       </c>
       <c r="E141">
-        <v>35.78007507324219</v>
+        <v>33.7566032409668</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1595584</v>
       </c>
       <c r="G141">
-        <v>37.40476176338578</v>
+        <v>33.04645879245399</v>
       </c>
       <c r="H141">
-        <v>37.90713577270508</v>
+        <v>32.61933612823486</v>
       </c>
       <c r="I141">
-        <v>38.66922213236491</v>
+        <v>32.9465784072876</v>
       </c>
       <c r="L141">
-        <v>36.01957447912147</v>
+        <v>58.74717598454603</v>
       </c>
       <c r="M141">
-        <v>38.72775639275069</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>53.29082424731914</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>35.84298706054688</v>
+        <v>33.78081512451172</v>
       </c>
       <c r="C142">
-        <v>36.17475891113281</v>
+        <v>34.26845932006836</v>
       </c>
       <c r="D142">
-        <v>35.70874786376953</v>
+        <v>33.65407943725586</v>
       </c>
       <c r="E142">
-        <v>35.88285446166992</v>
+        <v>34.08663177490234</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>37.26640655413888</v>
+        <v>33.14101997267657</v>
       </c>
       <c r="H142">
-        <v>37.66219863891602</v>
+        <v>32.74260902404785</v>
       </c>
       <c r="I142">
-        <v>38.57378362019857</v>
+        <v>32.92007910410563</v>
       </c>
       <c r="L142">
-        <v>37.34026009588003</v>
+        <v>61.55123316838644</v>
       </c>
       <c r="M142">
-        <v>39.46272158059205</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>55.21238646201978</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>35.80437850952148</v>
+        <v>34.06423950195312</v>
       </c>
       <c r="C143">
-        <v>35.86286926269531</v>
+        <v>34.72114562988281</v>
       </c>
       <c r="D143">
-        <v>35.1441650390625</v>
+        <v>33.75991058349609</v>
       </c>
       <c r="E143">
-        <v>35.3866081237793</v>
+        <v>34.35022354125977</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>8888160</v>
       </c>
       <c r="G143">
-        <v>37.09551578774255</v>
+        <v>33.25094756982049</v>
       </c>
       <c r="H143">
-        <v>37.39924774169922</v>
+        <v>32.81460170745849</v>
       </c>
       <c r="I143">
-        <v>38.43647054036458</v>
+        <v>32.91665223439534</v>
       </c>
       <c r="L143">
-        <v>33.57564564667906</v>
+        <v>63.76433928837092</v>
       </c>
       <c r="M143">
-        <v>37.14591380836148</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>56.74302766210435</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>35.37406539916992</v>
+        <v>34.32981872558594</v>
       </c>
       <c r="C144">
-        <v>35.49847412109375</v>
+        <v>34.78638076782227</v>
       </c>
       <c r="D144">
-        <v>35.08746719360352</v>
+        <v>33.96952056884766</v>
       </c>
       <c r="E144">
-        <v>35.26648712158203</v>
+        <v>34.78638076782227</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>36.92924045445523</v>
+        <v>33.39053240600246</v>
       </c>
       <c r="H144">
-        <v>37.17360954284668</v>
+        <v>32.94454402923584</v>
       </c>
       <c r="I144">
-        <v>38.32908083597819</v>
+        <v>32.94600353240967</v>
       </c>
       <c r="L144">
-        <v>32.67846686548334</v>
+        <v>67.27116458529109</v>
       </c>
       <c r="M144">
-        <v>36.58599614544264</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>59.22612303458536</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>35.2237548828125</v>
+        <v>34.80082702636719</v>
       </c>
       <c r="C145">
-        <v>35.30960083007812</v>
+        <v>35.62886047363281</v>
       </c>
       <c r="D145">
-        <v>34.81180953979492</v>
+        <v>34.73070907592773</v>
       </c>
       <c r="E145">
-        <v>35.13357925415039</v>
+        <v>35.23501968383789</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>4130752</v>
       </c>
       <c r="G145">
-        <v>36.76599852715479</v>
+        <v>33.55821306762387</v>
       </c>
       <c r="H145">
-        <v>36.87857322692871</v>
+        <v>33.04016704559326</v>
       </c>
       <c r="I145">
-        <v>38.17271194458008</v>
+        <v>32.98905086517334</v>
       </c>
       <c r="L145">
-        <v>31.62652822943256</v>
+        <v>70.56736413795892</v>
       </c>
       <c r="M145">
-        <v>35.94047078515129</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>61.66384614447361</v>
+      </c>
+      <c r="O145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>35.07735443115234</v>
+        <v>35.19557952880859</v>
       </c>
       <c r="C146">
-        <v>36.31726837158203</v>
+        <v>35.31782913208008</v>
       </c>
       <c r="D146">
-        <v>35.07073593139648</v>
+        <v>34.62881851196289</v>
       </c>
       <c r="E146">
-        <v>35.39406204223633</v>
+        <v>35.29208374023438</v>
       </c>
       <c r="F146">
-        <v>7423768</v>
+        <v>2173088</v>
       </c>
       <c r="G146">
-        <v>36.64127702852583</v>
+        <v>33.71583767422482</v>
       </c>
       <c r="H146">
-        <v>36.64370040893554</v>
+        <v>33.13513202667237</v>
       </c>
       <c r="I146">
-        <v>37.98749542236328</v>
+        <v>33.02593631744385</v>
       </c>
       <c r="L146">
-        <v>36.15777400508458</v>
+        <v>70.98549889696123</v>
       </c>
       <c r="M146">
-        <v>38.24040742661438</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>61.97524653603907</v>
+      </c>
+      <c r="O146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>35.39362335205078</v>
+        <v>35.39023971557617</v>
       </c>
       <c r="C147">
-        <v>36.67428588867188</v>
+        <v>35.39023971557617</v>
       </c>
       <c r="D147">
-        <v>34.8430290222168</v>
+        <v>34.86820602416992</v>
       </c>
       <c r="E147">
-        <v>36.67214584350586</v>
+        <v>35.07554244995117</v>
       </c>
       <c r="F147">
-        <v>10589832</v>
+        <v>1006976</v>
       </c>
       <c r="G147">
-        <v>36.64408328443311</v>
+        <v>33.83944719929085</v>
       </c>
       <c r="H147">
-        <v>36.51621627807617</v>
+        <v>33.22903785705567</v>
       </c>
       <c r="I147">
-        <v>37.85020332336425</v>
+        <v>33.06994736989339</v>
       </c>
       <c r="L147">
-        <v>53.25708469010881</v>
+        <v>66.92652734463012</v>
       </c>
       <c r="M147">
-        <v>48.08866330088567</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>59.98407203088421</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>36.48614501953125</v>
+        <v>35.0526237487793</v>
       </c>
       <c r="C148">
-        <v>36.60921859741211</v>
+        <v>36.42791366577149</v>
       </c>
       <c r="D148">
-        <v>35.92966842651367</v>
+        <v>35.0526237487793</v>
       </c>
       <c r="E148">
-        <v>36.1709213256836</v>
+        <v>36.16335678100586</v>
       </c>
       <c r="F148">
-        <v>1681264</v>
+        <v>10944216</v>
       </c>
       <c r="G148">
-        <v>36.60106856091043</v>
+        <v>34.05071170671949</v>
       </c>
       <c r="H148">
-        <v>36.36915531158447</v>
+        <v>33.39818611145019</v>
       </c>
       <c r="I148">
-        <v>37.68515141805013</v>
+        <v>33.12177257537842</v>
       </c>
       <c r="L148">
-        <v>47.62891979840145</v>
+        <v>75.0041119797755</v>
       </c>
       <c r="M148">
-        <v>45.05442286366994</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>65.90954006535472</v>
+      </c>
+      <c r="O148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>36.1908073425293</v>
+        <v>36.32696533203125</v>
       </c>
       <c r="C149">
-        <v>36.41012191772461</v>
+        <v>37.30475234985352</v>
       </c>
       <c r="D149">
-        <v>36.01194763183594</v>
+        <v>35.74316787719727</v>
       </c>
       <c r="E149">
-        <v>36.14784622192383</v>
+        <v>35.74316787719727</v>
       </c>
       <c r="F149">
-        <v>1191896</v>
+        <v>21966856</v>
       </c>
       <c r="G149">
-        <v>36.55986653009346</v>
+        <v>34.20457135858111</v>
       </c>
       <c r="H149">
-        <v>36.2626558303833</v>
+        <v>33.53083171844482</v>
       </c>
       <c r="I149">
-        <v>37.50990715026855</v>
+        <v>33.20233160654704</v>
       </c>
       <c r="L149">
-        <v>47.36964908115082</v>
+        <v>67.80759451509927</v>
       </c>
       <c r="M149">
-        <v>44.91392028674608</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>62.08523454789628</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>36.12003707885742</v>
+        <v>35.76747131347656</v>
       </c>
       <c r="C150">
-        <v>37.28072357177734</v>
+        <v>38.38985061645508</v>
       </c>
       <c r="D150">
-        <v>35.98575592041016</v>
+        <v>35.67610549926758</v>
       </c>
       <c r="E150">
-        <v>36.48643493652344</v>
+        <v>38.01552200317383</v>
       </c>
       <c r="F150">
-        <v>18528936</v>
+        <v>36482408</v>
       </c>
       <c r="G150">
-        <v>36.553190930678</v>
+        <v>34.55102141718044</v>
       </c>
       <c r="H150">
-        <v>36.14655456542969</v>
+        <v>33.8198787689209</v>
       </c>
       <c r="I150">
-        <v>37.36316324869792</v>
+        <v>33.43857294718425</v>
       </c>
       <c r="L150">
-        <v>51.70905044152541</v>
+        <v>79.67320648277742</v>
       </c>
       <c r="M150">
-        <v>47.50100896353381</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>71.66151810604924</v>
+      </c>
+      <c r="O150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>36.38850784301758</v>
+        <v>37.85926818847656</v>
       </c>
       <c r="C151">
-        <v>36.96775436401367</v>
+        <v>38.04909515380859</v>
       </c>
       <c r="D151">
-        <v>36.08006286621094</v>
+        <v>37.35535430908203</v>
       </c>
       <c r="E151">
-        <v>36.72137832641602</v>
+        <v>37.46099853515625</v>
       </c>
       <c r="F151">
-        <v>6968064</v>
+        <v>7216656</v>
       </c>
       <c r="G151">
-        <v>36.56848069392691</v>
+        <v>34.81556479154188</v>
       </c>
       <c r="H151">
-        <v>36.064404296875</v>
+        <v>34.10265808105468</v>
       </c>
       <c r="I151">
-        <v>37.24683443705241</v>
+        <v>33.61985499064128</v>
       </c>
       <c r="J151">
-        <v>37.87655634562174</v>
+        <v>36.97770529429118</v>
       </c>
       <c r="L151">
-        <v>54.62925162354407</v>
+        <v>72.35198411727148</v>
       </c>
       <c r="M151">
-        <v>49.28099109556547</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>67.20092628513601</v>
+      </c>
+      <c r="O151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>36.73712539672852</v>
+        <v>37.54965591430664</v>
       </c>
       <c r="C152">
-        <v>36.74212265014648</v>
+        <v>37.83059692382812</v>
       </c>
       <c r="D152">
-        <v>35.95919036865234</v>
+        <v>36.16691589355469</v>
       </c>
       <c r="E152">
-        <v>35.95919036865234</v>
+        <v>36.2955322265625</v>
       </c>
       <c r="F152">
-        <v>245672</v>
+        <v>11020560</v>
       </c>
       <c r="G152">
-        <v>36.5130906643565</v>
+        <v>34.95010728563467</v>
       </c>
       <c r="H152">
-        <v>35.98011054992676</v>
+        <v>34.31140670776367</v>
       </c>
       <c r="I152">
-        <v>37.08608754475912</v>
+        <v>33.77566693623861</v>
       </c>
       <c r="J152">
-        <v>37.85116076976784</v>
+        <v>36.9686698894206</v>
       </c>
       <c r="L152">
-        <v>44.75247073832999</v>
+        <v>59.43781540164046</v>
       </c>
       <c r="M152">
-        <v>44.06172201535556</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>58.902350217959</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>35.88566589355469</v>
+        <v>36.23711395263672</v>
       </c>
       <c r="C153">
-        <v>36.33895874023438</v>
+        <v>36.68265533447266</v>
       </c>
       <c r="D153">
-        <v>34.49682235717773</v>
+        <v>35.85470962524414</v>
       </c>
       <c r="E153">
-        <v>34.88161087036133</v>
+        <v>36.35944747924805</v>
       </c>
       <c r="F153">
-        <v>5828368</v>
+        <v>7674624</v>
       </c>
       <c r="G153">
-        <v>36.36477431944785</v>
+        <v>35.0782291214177</v>
       </c>
       <c r="H153">
-        <v>35.92093639373779</v>
+        <v>34.58248414993286</v>
       </c>
       <c r="I153">
-        <v>36.89395370483398</v>
+        <v>33.89063618977865</v>
       </c>
       <c r="J153">
-        <v>37.81182898302074</v>
+        <v>36.96060071842494</v>
       </c>
       <c r="L153">
-        <v>34.75755483568945</v>
+        <v>59.87962817640935</v>
       </c>
       <c r="M153">
-        <v>37.94332613938064</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>59.1999131828137</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>35.00209045410156</v>
+        <v>36.37892150878906</v>
       </c>
       <c r="C154">
-        <v>35.00209045410156</v>
+        <v>38.24043655395508</v>
       </c>
       <c r="D154">
-        <v>34.45302963256836</v>
+        <v>36.25361633300781</v>
       </c>
       <c r="E154">
-        <v>34.45302963256836</v>
+        <v>37.86983871459961</v>
       </c>
       <c r="F154">
-        <v>4346816</v>
+        <v>7296656</v>
       </c>
       <c r="G154">
-        <v>36.19097934791334</v>
+        <v>35.33201181170696</v>
       </c>
       <c r="H154">
-        <v>35.84631042480468</v>
+        <v>34.87803373336792</v>
       </c>
       <c r="I154">
-        <v>36.7164129892985</v>
+        <v>34.08004633585612</v>
       </c>
       <c r="J154">
-        <v>37.76734157440548</v>
+        <v>36.9726436057915</v>
       </c>
       <c r="L154">
-        <v>31.59977085261309</v>
+        <v>68.8885795214612</v>
       </c>
       <c r="M154">
-        <v>35.81328132963858</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>65.54803827792819</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>34.4077033996582</v>
+        <v>37.88818359375</v>
       </c>
       <c r="C155">
-        <v>34.4077033996582</v>
+        <v>38.1798095703125</v>
       </c>
       <c r="D155">
-        <v>33.54421234130859</v>
+        <v>36.76689529418945</v>
       </c>
       <c r="E155">
-        <v>33.90584182739258</v>
+        <v>36.76689529418945</v>
       </c>
       <c r="F155">
-        <v>16962800</v>
+        <v>504656</v>
       </c>
       <c r="G155">
-        <v>35.98323957332054</v>
+        <v>35.46245576465991</v>
       </c>
       <c r="H155">
-        <v>35.76418800354004</v>
+        <v>35.125892162323</v>
       </c>
       <c r="I155">
-        <v>36.47879753112793</v>
+        <v>34.19485753377278</v>
       </c>
       <c r="J155">
-        <v>37.71619588239206</v>
+        <v>36.96991846259147</v>
       </c>
       <c r="L155">
-        <v>27.95219080983103</v>
+        <v>58.15983804418959</v>
       </c>
       <c r="M155">
-        <v>33.24705771620557</v>
-      </c>
-      <c r="N155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>58.40206990537373</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>33.87913513183594</v>
+        <v>36.7471809387207</v>
       </c>
       <c r="C156">
-        <v>34.52865219116211</v>
+        <v>37.61264038085938</v>
       </c>
       <c r="D156">
-        <v>33.32810592651367</v>
+        <v>36.20633316040039</v>
       </c>
       <c r="E156">
-        <v>33.94359970092773</v>
+        <v>37.0136604309082</v>
       </c>
       <c r="F156">
-        <v>1688888</v>
+        <v>2744384</v>
       </c>
       <c r="G156">
-        <v>35.79781776673937</v>
+        <v>35.60347437068248</v>
       </c>
       <c r="H156">
-        <v>35.64399394989014</v>
+        <v>35.38235492706299</v>
       </c>
       <c r="I156">
-        <v>36.27386690775553</v>
+        <v>34.31555341084798</v>
       </c>
       <c r="J156">
-        <v>37.66622772104817</v>
+        <v>36.97049782641024</v>
       </c>
       <c r="L156">
-        <v>28.59205977046624</v>
+        <v>59.73809936689258</v>
       </c>
       <c r="M156">
-        <v>33.60062346364075</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>59.46677134395471</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>33.97046661376953</v>
+        <v>36.98276901245117</v>
       </c>
       <c r="C157">
-        <v>34.53411102294922</v>
+        <v>38.32978439331055</v>
       </c>
       <c r="D157">
-        <v>33.67221069335938</v>
+        <v>36.63665008544922</v>
       </c>
       <c r="E157">
-        <v>34.18552017211914</v>
+        <v>38.32978439331055</v>
       </c>
       <c r="F157">
-        <v>19397888</v>
+        <v>13589216</v>
       </c>
       <c r="G157">
-        <v>35.65124525813754</v>
+        <v>35.85132073637594</v>
       </c>
       <c r="H157">
-        <v>35.51494617462158</v>
+        <v>35.71352233886719</v>
       </c>
       <c r="I157">
-        <v>36.10598996480306</v>
+        <v>34.48663202921549</v>
       </c>
       <c r="J157">
-        <v>37.62012563430739</v>
+        <v>36.98850162199832</v>
       </c>
       <c r="L157">
-        <v>32.88827732627555</v>
+        <v>67.1689125289487</v>
       </c>
       <c r="M157">
-        <v>35.94174859585275</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>64.66190715346289</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>34.22475433349609</v>
+        <v>38.53078079223633</v>
       </c>
       <c r="C158">
-        <v>35.6311149597168</v>
+        <v>39.27587890625</v>
       </c>
       <c r="D158">
-        <v>33.75384902954102</v>
+        <v>38.23759078979492</v>
       </c>
       <c r="E158">
-        <v>33.75521087646484</v>
+        <v>38.45061111450195</v>
       </c>
       <c r="F158">
-        <v>30972528</v>
+        <v>51475920</v>
       </c>
       <c r="G158">
-        <v>35.47887849616729</v>
+        <v>36.08761986166012</v>
       </c>
       <c r="H158">
-        <v>35.42261772155761</v>
+        <v>35.95978240966797</v>
       </c>
       <c r="I158">
-        <v>35.92742563883463</v>
+        <v>34.67563934326172</v>
       </c>
       <c r="J158">
-        <v>37.56893471036246</v>
+        <v>37.00786731064075</v>
       </c>
       <c r="L158">
-        <v>29.3542392834609</v>
+        <v>67.78302170974433</v>
       </c>
       <c r="M158">
-        <v>33.66786124445575</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>65.10409927120479</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>33.84505081176758</v>
+        <v>38.39602279663086</v>
       </c>
       <c r="C159">
-        <v>35.03804016113281</v>
+        <v>38.58048629760742</v>
       </c>
       <c r="D159">
-        <v>33.31797409057617</v>
+        <v>37.27853775024414</v>
       </c>
       <c r="E159">
-        <v>34.60860061645508</v>
+        <v>37.5050163269043</v>
       </c>
       <c r="F159">
-        <v>8978880</v>
+        <v>13965296</v>
       </c>
       <c r="G159">
-        <v>35.39976232528436</v>
+        <v>36.21647408577323</v>
       </c>
       <c r="H159">
-        <v>35.33862686157227</v>
+        <v>36.13336124420166</v>
       </c>
       <c r="I159">
-        <v>35.80511779785157</v>
+        <v>34.8227980295817</v>
       </c>
       <c r="J159">
-        <v>37.52972498726434</v>
+        <v>37.01445206582306</v>
       </c>
       <c r="L159">
-        <v>43.01588741299997</v>
+        <v>58.19857069032744</v>
       </c>
       <c r="M159">
-        <v>41.56378898287222</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>58.89313119350438</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>34.5441780090332</v>
+        <v>37.43540573120117</v>
       </c>
       <c r="C160">
-        <v>34.98246002197266</v>
+        <v>38.16770935058594</v>
       </c>
       <c r="D160">
-        <v>33.32639694213867</v>
+        <v>36.69232940673828</v>
       </c>
       <c r="E160">
-        <v>33.32639694213867</v>
+        <v>36.69232940673828</v>
       </c>
       <c r="F160">
-        <v>12209824</v>
+        <v>11795120</v>
       </c>
       <c r="G160">
-        <v>35.21127456318021</v>
+        <v>36.25973366040641</v>
       </c>
       <c r="H160">
-        <v>35.20306968688965</v>
+        <v>36.26243228912354</v>
       </c>
       <c r="I160">
-        <v>35.62238235473633</v>
+        <v>34.97138964335124</v>
       </c>
       <c r="J160">
-        <v>37.47405176812361</v>
+        <v>37.01018554053717</v>
       </c>
       <c r="L160">
-        <v>32.41899253375156</v>
+        <v>51.1988991261147</v>
       </c>
       <c r="M160">
-        <v>34.85118537568481</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>54.1148641378883</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>33.37345504760742</v>
+        <v>36.633544921875</v>
       </c>
       <c r="C161">
-        <v>33.5136604309082</v>
+        <v>37.09873199462891</v>
       </c>
       <c r="D161">
-        <v>30.92228507995605</v>
+        <v>36.43180465698242</v>
       </c>
       <c r="E161">
-        <v>30.92828178405762</v>
+        <v>36.80216598510742</v>
       </c>
       <c r="F161">
-        <v>29444512</v>
+        <v>12329920</v>
       </c>
       <c r="G161">
-        <v>34.82191158325998</v>
+        <v>36.30904568992469</v>
       </c>
       <c r="H161">
-        <v>34.96048002243042</v>
+        <v>36.41471042633056</v>
       </c>
       <c r="I161">
-        <v>35.37451229095459</v>
+        <v>35.13794809977214</v>
       </c>
       <c r="J161">
-        <v>37.38735282793731</v>
+        <v>37.00743031463745</v>
       </c>
       <c r="L161">
-        <v>21.35159345155036</v>
+        <v>52.07529641812075</v>
       </c>
       <c r="M161">
-        <v>26.29698335354119</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>54.65039888388501</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>31.04644393920898</v>
+        <v>36.76781463623047</v>
       </c>
       <c r="C162">
-        <v>32.04976654052734</v>
+        <v>37.39986038208008</v>
       </c>
       <c r="D162">
-        <v>30.46247291564941</v>
+        <v>36.55740356445312</v>
       </c>
       <c r="E162">
-        <v>32.02253723144531</v>
+        <v>37.39986038208008</v>
       </c>
       <c r="F162">
-        <v>19157920</v>
+        <v>8216576</v>
       </c>
       <c r="G162">
-        <v>34.56742300582228</v>
+        <v>36.40821066193882</v>
       </c>
       <c r="H162">
-        <v>34.76746416091919</v>
+        <v>36.58037185668945</v>
       </c>
       <c r="I162">
-        <v>35.18709468841553</v>
+        <v>35.31392478942871</v>
       </c>
       <c r="J162">
-        <v>37.31629566771887</v>
+        <v>37.0126280638751</v>
       </c>
       <c r="L162">
-        <v>33.0791769871115</v>
+        <v>56.82226124660218</v>
       </c>
       <c r="M162">
-        <v>34.22975209558427</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>57.55357650213595</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>32.08880615234375</v>
+        <v>37.44541931152344</v>
       </c>
       <c r="C163">
-        <v>32.14122772216797</v>
+        <v>37.44541931152344</v>
       </c>
       <c r="D163">
-        <v>31.30854988098145</v>
+        <v>35.91526794433594</v>
       </c>
       <c r="E163">
-        <v>31.62117385864257</v>
+        <v>36.49702835083008</v>
       </c>
       <c r="F163">
-        <v>3033776</v>
+        <v>16626960</v>
       </c>
       <c r="G163">
-        <v>34.29958217426049</v>
+        <v>36.41628499729257</v>
       </c>
       <c r="H163">
-        <v>34.57919244766235</v>
+        <v>36.68771209716797</v>
       </c>
       <c r="I163">
-        <v>35.03896401723226</v>
+        <v>35.4992291132609</v>
       </c>
       <c r="J163">
-        <v>37.24086359077747</v>
+        <v>37.00579892860299</v>
       </c>
       <c r="L163">
-        <v>31.16177847636879</v>
+        <v>48.63585277796187</v>
       </c>
       <c r="M163">
-        <v>32.83381890883634</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>52.1253090634333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>31.5082893371582</v>
+        <v>36.37198257446289</v>
       </c>
       <c r="C164">
-        <v>32.91036987304688</v>
+        <v>37.14142608642578</v>
       </c>
       <c r="D164">
-        <v>31.37389945983887</v>
+        <v>36.28091430664063</v>
       </c>
       <c r="E164">
-        <v>32.91036987304688</v>
+        <v>36.93581008911133</v>
       </c>
       <c r="F164">
-        <v>1831328</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>34.17329014687743</v>
+        <v>36.46351455109427</v>
       </c>
       <c r="H164">
-        <v>34.46138658523559</v>
+        <v>36.79518356323242</v>
       </c>
       <c r="I164">
-        <v>34.9377913792928</v>
+        <v>35.665127881368</v>
       </c>
       <c r="J164">
-        <v>37.18350605809229</v>
+        <v>37.00487192410641</v>
       </c>
       <c r="L164">
-        <v>43.08328760404684</v>
+        <v>52.38644312519305</v>
       </c>
       <c r="M164">
-        <v>41.13741321080128</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>54.3774459447095</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>32.91263961791992</v>
+        <v>37.0259895324707</v>
       </c>
       <c r="C165">
-        <v>33.38901901245117</v>
+        <v>37.14103698730469</v>
       </c>
       <c r="D165">
-        <v>32.18753433227539</v>
+        <v>35.36117172241211</v>
       </c>
       <c r="E165">
-        <v>32.18753433227539</v>
+        <v>35.37475967407227</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>9998896</v>
       </c>
       <c r="G165">
-        <v>33.99276689100452</v>
+        <v>36.36453683500136</v>
       </c>
       <c r="H165">
-        <v>34.31408433914184</v>
+        <v>36.80217056274414</v>
       </c>
       <c r="I165">
-        <v>34.8257661819458</v>
+        <v>35.78396231333415</v>
       </c>
       <c r="J165">
-        <v>37.11733424715432</v>
+        <v>36.98328103337748</v>
       </c>
       <c r="L165">
-        <v>38.84042794634372</v>
+        <v>40.53881305330916</v>
       </c>
       <c r="M165">
-        <v>38.27988015617947</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>46.0733613372232</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>32.1762809753418</v>
+        <v>35.44167327880859</v>
       </c>
       <c r="C166">
-        <v>33.56114196777344</v>
+        <v>35.44167327880859</v>
       </c>
       <c r="D166">
-        <v>32.05598449707031</v>
+        <v>34.67332077026367</v>
       </c>
       <c r="E166">
-        <v>33.32255935668945</v>
+        <v>35.11092376708984</v>
       </c>
       <c r="F166">
-        <v>1871232</v>
+        <v>9747792</v>
       </c>
       <c r="G166">
-        <v>33.93183893333951</v>
+        <v>36.25057201064577</v>
       </c>
       <c r="H166">
-        <v>34.2105092048645</v>
+        <v>36.79311256408691</v>
       </c>
       <c r="I166">
-        <v>34.72493546803792</v>
+        <v>35.89151293436687</v>
       </c>
       <c r="J166">
-        <v>37.06707232807532</v>
+        <v>36.95848159938691</v>
       </c>
       <c r="L166">
-        <v>47.90352499459319</v>
+        <v>38.8674598942363</v>
       </c>
       <c r="M166">
-        <v>44.76769000993324</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>44.82736203845267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>33.43244934082031</v>
+        <v>35.13314437866211</v>
       </c>
       <c r="C167">
-        <v>34.32789611816406</v>
+        <v>35.99380874633789</v>
       </c>
       <c r="D167">
-        <v>33.36284637451172</v>
+        <v>34.89001846313477</v>
       </c>
       <c r="E167">
-        <v>33.39278411865234</v>
+        <v>35.99380874633789</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>2565712</v>
       </c>
       <c r="G167">
-        <v>33.88283395018613</v>
+        <v>36.22722989570869</v>
       </c>
       <c r="H167">
-        <v>34.04654111862182</v>
+        <v>36.83902587890625</v>
       </c>
       <c r="I167">
-        <v>34.61247908274333</v>
+        <v>36.03442535400391</v>
       </c>
       <c r="J167">
-        <v>37.01840625907634</v>
+        <v>36.94570447550547</v>
       </c>
       <c r="L167">
-        <v>48.43538984852264</v>
+        <v>47.08101955095517</v>
       </c>
       <c r="M167">
-        <v>45.15184185449233</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>49.72693443424124</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>33.44939422607422</v>
+        <v>35.9002799987793</v>
       </c>
       <c r="C168">
-        <v>33.89479827880859</v>
+        <v>35.9002799987793</v>
       </c>
       <c r="D168">
-        <v>32.85907363891602</v>
+        <v>34.36763381958008</v>
       </c>
       <c r="E168">
-        <v>33.19742584228516</v>
+        <v>34.826171875</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>6844336</v>
       </c>
       <c r="G168">
-        <v>33.82052412219514</v>
+        <v>36.09986098473517</v>
       </c>
       <c r="H168">
-        <v>33.89786634445191</v>
+        <v>36.77216663360596</v>
       </c>
       <c r="I168">
-        <v>34.53233394622803</v>
+        <v>36.07778409322103</v>
       </c>
       <c r="J168">
-        <v>36.96779724693342</v>
+        <v>36.91763119602858</v>
       </c>
       <c r="L168">
-        <v>46.93573726608556</v>
+        <v>39.23741699619504</v>
       </c>
       <c r="M168">
-        <v>44.23021527481534</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>44.14363547887877</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>33.25008773803711</v>
+        <v>34.87590026855469</v>
       </c>
       <c r="C169">
-        <v>33.62103652954102</v>
+        <v>34.87590026855469</v>
       </c>
       <c r="D169">
-        <v>32.68569946289062</v>
+        <v>33.95078659057617</v>
       </c>
       <c r="E169">
-        <v>32.78039169311523</v>
+        <v>34.5392951965332</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1486432</v>
       </c>
       <c r="G169">
-        <v>33.72596662864242</v>
+        <v>35.9579913676259</v>
       </c>
       <c r="H169">
-        <v>33.72949361801147</v>
+        <v>36.71197299957275</v>
       </c>
       <c r="I169">
-        <v>34.41539974212647</v>
+        <v>36.09464594523112</v>
       </c>
       <c r="J169">
-        <v>36.91233492171729</v>
+        <v>36.88613005696241</v>
       </c>
       <c r="L169">
-        <v>43.68729368224104</v>
+        <v>37.51015375616514</v>
       </c>
       <c r="M169">
-        <v>42.24774126430767</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>42.87005793454365</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>32.83093643188477</v>
+        <v>34.52030944824219</v>
       </c>
       <c r="C170">
-        <v>33.13254165649414</v>
+        <v>34.89962005615234</v>
       </c>
       <c r="D170">
-        <v>32.40627670288086</v>
+        <v>34.44587707519531</v>
       </c>
       <c r="E170">
-        <v>33.09025573730469</v>
+        <v>34.80273056030273</v>
       </c>
       <c r="F170">
-        <v>550192</v>
+        <v>171552</v>
       </c>
       <c r="G170">
-        <v>33.66817472942989</v>
+        <v>35.85296765786925</v>
       </c>
       <c r="H170">
-        <v>33.55968465805054</v>
+        <v>36.5513334274292</v>
       </c>
       <c r="I170">
-        <v>34.31715691884359</v>
+        <v>36.11770668029785</v>
       </c>
       <c r="J170">
-        <v>36.86171135636083</v>
+        <v>36.85853536164242</v>
       </c>
       <c r="L170">
-        <v>46.76696923680255</v>
+        <v>40.2283734093197</v>
       </c>
       <c r="M170">
-        <v>44.24731972208547</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>44.45483107535055</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>33.04484176635742</v>
+        <v>34.74715423583984</v>
       </c>
       <c r="C171">
-        <v>33.04484176635742</v>
+        <v>34.80165863037109</v>
       </c>
       <c r="D171">
-        <v>32.05239868164062</v>
+        <v>33.38652038574219</v>
       </c>
       <c r="E171">
-        <v>32.23458099365234</v>
+        <v>33.87068939208984</v>
       </c>
       <c r="F171">
-        <v>711248</v>
+        <v>5434240</v>
       </c>
       <c r="G171">
-        <v>33.53784802617739</v>
+        <v>35.67276054279839</v>
       </c>
       <c r="H171">
-        <v>33.33534479141235</v>
+        <v>36.37181797027588</v>
       </c>
       <c r="I171">
-        <v>34.19897378285726</v>
+        <v>36.12150955200195</v>
       </c>
       <c r="J171">
-        <v>36.80042486149052</v>
+        <v>36.81896124284039</v>
       </c>
       <c r="L171">
-        <v>39.97524891026568</v>
+        <v>34.29129806069322</v>
       </c>
       <c r="M171">
-        <v>40.1166855710374</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>40.20537681037889</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>32.19448852539062</v>
+        <v>33.89156341552734</v>
       </c>
       <c r="C172">
-        <v>32.25321578979492</v>
+        <v>34.13083267211914</v>
       </c>
       <c r="D172">
-        <v>31.50083923339844</v>
+        <v>33.20739364624023</v>
       </c>
       <c r="E172">
-        <v>31.80541229248047</v>
+        <v>33.47844314575195</v>
       </c>
       <c r="F172">
-        <v>1003160</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>33.38035386856858</v>
+        <v>35.47327714306689</v>
       </c>
       <c r="H172">
-        <v>33.12765588760376</v>
+        <v>36.23096351623535</v>
       </c>
       <c r="I172">
-        <v>34.06305904388428</v>
+        <v>36.10123659769694</v>
       </c>
       <c r="J172">
-        <v>36.73426575461622</v>
+        <v>36.77471597003127</v>
       </c>
       <c r="L172">
-        <v>36.94764420470829</v>
+        <v>32.05171302619745</v>
       </c>
       <c r="M172">
-        <v>38.19096019986659</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>38.53587164899221</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>31.87856864929199</v>
+        <v>33.40248107910156</v>
       </c>
       <c r="C173">
-        <v>32.36580276489258</v>
+        <v>34.05947113037109</v>
       </c>
       <c r="D173">
-        <v>31.43961143493652</v>
+        <v>33.40248107910156</v>
       </c>
       <c r="E173">
-        <v>32.12055969238281</v>
+        <v>34.05943298339844</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>2184448</v>
       </c>
       <c r="G173">
-        <v>33.26582712527896</v>
+        <v>35.34474585582431</v>
       </c>
       <c r="H173">
-        <v>32.98960332870483</v>
+        <v>36.11596279144287</v>
       </c>
       <c r="I173">
-        <v>33.95419076283773</v>
+        <v>36.09154357910156</v>
       </c>
       <c r="J173">
-        <v>36.67315706505021</v>
+        <v>36.73875195696329</v>
       </c>
       <c r="L173">
-        <v>40.66035521691069</v>
+        <v>38.72069751193656</v>
       </c>
       <c r="M173">
-        <v>40.45149170588051</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>42.35413775246874</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>32.16020965576172</v>
+        <v>34.00722885131836</v>
       </c>
       <c r="C174">
-        <v>32.25254058837891</v>
+        <v>34.22711563110352</v>
       </c>
       <c r="D174">
-        <v>30.93789863586425</v>
+        <v>33.42839431762695</v>
       </c>
       <c r="E174">
-        <v>30.93789863586425</v>
+        <v>33.42839431762695</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>33.05419726260489</v>
+        <v>35.17053207962454</v>
       </c>
       <c r="H174">
-        <v>32.81384677886963</v>
+        <v>35.89389057159424</v>
       </c>
       <c r="I174">
-        <v>33.80990447998047</v>
+        <v>36.04627736409505</v>
       </c>
       <c r="J174">
-        <v>36.59719337724643</v>
+        <v>36.69490616041579</v>
       </c>
       <c r="L174">
-        <v>32.56493891674948</v>
+        <v>34.57426920147398</v>
       </c>
       <c r="M174">
-        <v>35.24247010079636</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>39.48501647283924</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>31.06783866882324</v>
+        <v>33.45590972900391</v>
       </c>
       <c r="C175">
-        <v>31.99318122863769</v>
+        <v>34.5983772277832</v>
       </c>
       <c r="D175">
-        <v>30.84530639648437</v>
+        <v>33.45590972900391</v>
       </c>
       <c r="E175">
-        <v>31.95884704589844</v>
+        <v>34.13112258911133</v>
       </c>
       <c r="F175">
-        <v>8265104</v>
+        <v>1936936</v>
       </c>
       <c r="G175">
-        <v>32.95461997017703</v>
+        <v>35.0760403077597</v>
       </c>
       <c r="H175">
-        <v>32.71649703979492</v>
+        <v>35.76210193634033</v>
       </c>
       <c r="I175">
-        <v>33.70408007303874</v>
+        <v>36.00948079427084</v>
       </c>
       <c r="J175">
-        <v>36.53575832650009</v>
+        <v>36.66094876212036</v>
       </c>
       <c r="L175">
-        <v>43.49138031538416</v>
+        <v>42.31336422097323</v>
       </c>
       <c r="M175">
-        <v>42.16607773868931</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>44.03186063663983</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>32.00870513916016</v>
+        <v>33.94695281982422</v>
       </c>
       <c r="C176">
-        <v>32.11318206787109</v>
+        <v>34.0836296081543</v>
       </c>
       <c r="D176">
-        <v>31.72537231445312</v>
+        <v>33.36639022827148</v>
       </c>
       <c r="E176">
-        <v>31.80972671508789</v>
+        <v>34.03786849975586</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1829096</v>
       </c>
       <c r="G176">
-        <v>32.85053876516893</v>
+        <v>34.98166105248663</v>
       </c>
       <c r="H176">
-        <v>32.60980339050293</v>
+        <v>35.61331233978272</v>
       </c>
       <c r="I176">
-        <v>33.58460222880046</v>
+        <v>35.96767361958822</v>
       </c>
       <c r="J176">
-        <v>36.47316188131582</v>
+        <v>36.62620597718838</v>
       </c>
       <c r="L176">
-        <v>42.3634813158152</v>
+        <v>41.57910449150616</v>
       </c>
       <c r="M176">
-        <v>41.46868063972884</v>
+        <v>43.56408149256917</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -6983,37 +6989,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>31.80144691467285</v>
+        <v>33.98472213745117</v>
       </c>
       <c r="C177">
-        <v>31.97071647644043</v>
+        <v>34.29135894775391</v>
       </c>
       <c r="D177">
-        <v>31.15066909790039</v>
+        <v>33.66012573242188</v>
       </c>
       <c r="E177">
-        <v>31.8844051361084</v>
+        <v>33.8158073425293</v>
       </c>
       <c r="F177">
-        <v>583544</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>32.76270843525433</v>
+        <v>34.87567435158142</v>
       </c>
       <c r="H177">
-        <v>32.49474763870239</v>
+        <v>35.38761348724366</v>
       </c>
       <c r="I177">
-        <v>33.42501087188721</v>
+        <v>35.92568244934082</v>
       </c>
       <c r="J177">
-        <v>36.41238364627997</v>
+        <v>36.58898215421276</v>
       </c>
       <c r="L177">
-        <v>43.19347734769666</v>
+        <v>39.73208798010067</v>
       </c>
       <c r="M177">
-        <v>41.98615818516794</v>
+        <v>42.40871873171287</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7021,37 +7027,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>31.85408592224121</v>
+        <v>33.85825729370117</v>
       </c>
       <c r="C178">
-        <v>32.01833343505859</v>
+        <v>34.49390029907227</v>
       </c>
       <c r="D178">
-        <v>31.5322208404541</v>
+        <v>33.7468147277832</v>
       </c>
       <c r="E178">
-        <v>31.70643615722656</v>
+        <v>33.7468147277832</v>
       </c>
       <c r="F178">
-        <v>231704</v>
+        <v>1322936</v>
       </c>
       <c r="G178">
-        <v>32.66668368270635</v>
+        <v>34.77305074941794</v>
       </c>
       <c r="H178">
-        <v>32.39230890274048</v>
+        <v>35.15242366790771</v>
       </c>
       <c r="I178">
-        <v>33.27619469960531</v>
+        <v>35.84513104756673</v>
       </c>
       <c r="J178">
-        <v>36.35005321596138</v>
+        <v>36.5513375525382</v>
       </c>
       <c r="L178">
-        <v>41.5878439784268</v>
+        <v>39.1246132287725</v>
       </c>
       <c r="M178">
-        <v>41.05462328089619</v>
+        <v>42.03570669527637</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7059,37 +7065,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>31.78214836120605</v>
+        <v>33.76683044433594</v>
       </c>
       <c r="C179">
-        <v>33.57694244384766</v>
+        <v>34.32017517089844</v>
       </c>
       <c r="D179">
-        <v>31.78214836120605</v>
+        <v>33.57486724853516</v>
       </c>
       <c r="E179">
-        <v>33.52540969848633</v>
+        <v>34.32017517089844</v>
       </c>
       <c r="F179">
-        <v>10548680</v>
+        <v>321280</v>
       </c>
       <c r="G179">
-        <v>32.74474968414089</v>
+        <v>34.7318802422798</v>
       </c>
       <c r="H179">
-        <v>32.33814935684204</v>
+        <v>34.99318161010742</v>
       </c>
       <c r="I179">
-        <v>33.18878014882406</v>
+        <v>35.79769795735677</v>
       </c>
       <c r="J179">
-        <v>36.31264071904118</v>
+        <v>36.52178573291383</v>
       </c>
       <c r="L179">
-        <v>59.07873299261428</v>
+        <v>46.73806235780246</v>
       </c>
       <c r="M179">
-        <v>52.62417511388716</v>
+        <v>46.26560443636338</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7097,37 +7103,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>33.54190826416016</v>
+        <v>34.32462692260742</v>
       </c>
       <c r="C180">
-        <v>34.05374145507812</v>
+        <v>34.76012420654297</v>
       </c>
       <c r="D180">
-        <v>32.89947891235352</v>
+        <v>33.9233283996582</v>
       </c>
       <c r="E180">
-        <v>34.03343963623047</v>
+        <v>34.57020950317383</v>
       </c>
       <c r="F180">
-        <v>10141896</v>
+        <v>7451464</v>
       </c>
       <c r="G180">
-        <v>32.86190331614903</v>
+        <v>34.71718290236107</v>
       </c>
       <c r="H180">
-        <v>32.37350149154663</v>
+        <v>34.8870756149292</v>
       </c>
       <c r="I180">
-        <v>33.10701363881429</v>
+        <v>35.68285420735677</v>
       </c>
       <c r="J180">
-        <v>36.28245262522913</v>
+        <v>36.4959370411292</v>
       </c>
       <c r="L180">
-        <v>62.59775338196883</v>
+        <v>49.8171328290252</v>
       </c>
       <c r="M180">
-        <v>55.26512766162404</v>
+        <v>48.04611261824095</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7135,37 +7141,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>33.97257614135742</v>
+        <v>34.54494476318359</v>
       </c>
       <c r="C181">
-        <v>34.44386291503906</v>
+        <v>35.07841110229492</v>
       </c>
       <c r="D181">
-        <v>33.97257614135742</v>
+        <v>33.98027038574219</v>
       </c>
       <c r="E181">
-        <v>34.11090850830078</v>
+        <v>35.07334518432617</v>
       </c>
       <c r="F181">
-        <v>8031968</v>
+        <v>13996680</v>
       </c>
       <c r="G181">
-        <v>32.97544924270828</v>
+        <v>34.74956129163063</v>
       </c>
       <c r="H181">
-        <v>32.53263282775879</v>
+        <v>34.80063457489014</v>
       </c>
       <c r="I181">
-        <v>33.01999797821045</v>
+        <v>35.6032657623291</v>
       </c>
       <c r="J181">
-        <v>36.25369045149498</v>
+        <v>36.47709476488016</v>
       </c>
       <c r="L181">
-        <v>63.1415052427984</v>
+        <v>55.62455481172675</v>
       </c>
       <c r="M181">
-        <v>55.67093046162525</v>
+        <v>51.52678828155474</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7173,37 +7179,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>34.10076522827148</v>
+        <v>35.13182830810547</v>
       </c>
       <c r="C182">
-        <v>34.25823211669922</v>
+        <v>35.32636260986328</v>
       </c>
       <c r="D182">
-        <v>33.65242385864258</v>
+        <v>35.01321029663086</v>
       </c>
       <c r="E182">
-        <v>33.81195068359375</v>
+        <v>35.01321029663086</v>
       </c>
       <c r="F182">
-        <v>1472640</v>
+        <v>1914576</v>
       </c>
       <c r="G182">
-        <v>33.05149482824332</v>
+        <v>34.77352938299428</v>
       </c>
       <c r="H182">
-        <v>32.62210350036621</v>
+        <v>34.68130207061768</v>
       </c>
       <c r="I182">
-        <v>32.94842332204183</v>
+        <v>35.56052169799805</v>
       </c>
       <c r="J182">
-        <v>36.22134952741681</v>
+        <v>36.4577055666252</v>
       </c>
       <c r="L182">
-        <v>59.39287479668717</v>
+        <v>54.77227422474035</v>
       </c>
       <c r="M182">
-        <v>53.64840935600441</v>
+        <v>51.08625809671412</v>
       </c>
     </row>
   </sheetData>
